--- a/PABMI/ENTREGABLES/Matriz de Pruebas PABMI_26062023.xlsx
+++ b/PABMI/ENTREGABLES/Matriz de Pruebas PABMI_26062023.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="108">
   <si>
     <t>Matriz de Pruebas Plataforma de Administración de Bienes Muebles e Inmuebles</t>
   </si>
@@ -410,6 +410,43 @@
   </si>
   <si>
     <t xml:space="preserve">Rodolfo Zuñiga </t>
+  </si>
+  <si>
+    <t>Ortografía Descripción
+El mensaje de confirmación es muy breve se recomienda:
+¡El registro ha sido creado!
+¡Registro creado exitosamente!
+Al guardar sin colocar ningún dato el mensaje de alerta lo coloca a tras de pantalla activa
+Das clic fuera de la pantalla y se muestra el mensaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar Registro </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-500</t>
+  </si>
+  <si>
+    <t>Tooltip descriptivos solo poner Eliminar
+Ajustar la redacción del mensaje de confirmación
+¿Estas seguro de querer eliminar el registro?
+Ajustar Color en los botones
+1 Fila seleccionada / esta escrito en inglés
+Modificar el mensaje usar signos de Exclamación y acento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar registro </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooltip descriptivo solo poner Editar </t>
+  </si>
+  <si>
+    <t>Edita registro</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-502</t>
   </si>
 </sst>
 </file>
@@ -771,6 +808,22 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,22 +874,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -11428,7 +11465,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11506,7 +11543,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11615,7 +11652,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:F50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -12095,8 +12132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12117,94 +12154,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="26" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
@@ -12401,19 +12438,19 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
+      <c r="A13" s="19">
         <v>7</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
@@ -12426,11 +12463,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12441,11 +12478,11 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
@@ -12456,11 +12493,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
@@ -12471,11 +12508,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="3" t="s">
         <v>39</v>
       </c>
@@ -12486,11 +12523,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="3" t="s">
         <v>40</v>
       </c>
@@ -12501,11 +12538,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
@@ -12516,11 +12553,11 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="3" t="s">
         <v>42</v>
       </c>
@@ -12531,19 +12568,19 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="37">
+      <c r="A21" s="19">
         <v>8</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -12556,11 +12593,11 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="3" t="s">
         <v>36</v>
       </c>
@@ -12571,11 +12608,11 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="3" t="s">
         <v>37</v>
       </c>
@@ -12586,11 +12623,11 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="3" t="s">
         <v>38</v>
       </c>
@@ -12600,11 +12637,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="3" t="s">
         <v>39</v>
       </c>
@@ -12615,11 +12652,11 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="3" t="s">
         <v>41</v>
       </c>
@@ -12630,11 +12667,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="3" t="s">
         <v>42</v>
       </c>
@@ -12645,23 +12682,26 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="37">
+      <c r="A28" s="19">
         <v>9</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -12669,59 +12709,113 @@
       <c r="M28" s="6"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+    <row r="29" spans="1:14" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="J29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="K29" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N29" s="1">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="231" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="J30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="1"/>
+      <c r="K30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="1">
+        <v>45112</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J31" s="2"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="1"/>
+      <c r="K31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N31" s="1">
+        <v>45112</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -12730,13 +12824,16 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>74</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -12745,11 +12842,11 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="3" t="s">
         <v>42</v>
       </c>
@@ -12760,19 +12857,19 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="37">
+      <c r="A35" s="19">
         <v>10</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -12785,11 +12882,11 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="3" t="s">
         <v>36</v>
       </c>
@@ -12800,11 +12897,11 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="3" t="s">
         <v>37</v>
       </c>
@@ -12814,11 +12911,11 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="3" t="s">
         <v>38</v>
       </c>
@@ -12829,11 +12926,11 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="3" t="s">
         <v>39</v>
       </c>
@@ -12844,11 +12941,11 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="3" t="s">
         <v>41</v>
       </c>
@@ -12859,11 +12956,11 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="3" t="s">
         <v>42</v>
       </c>
@@ -12874,19 +12971,19 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="37">
+      <c r="A42" s="19">
         <v>11</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -12899,11 +12996,11 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="3" t="s">
         <v>36</v>
       </c>
@@ -12914,11 +13011,11 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="3" t="s">
         <v>37</v>
       </c>
@@ -12928,11 +13025,11 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="3" t="s">
         <v>38</v>
       </c>
@@ -12943,11 +13040,11 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="3" t="s">
         <v>39</v>
       </c>
@@ -12957,11 +13054,11 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="3" t="s">
         <v>41</v>
       </c>
@@ -12971,11 +13068,11 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="3" t="s">
         <v>42</v>
       </c>
@@ -12985,19 +13082,19 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="37">
+      <c r="A49" s="19">
         <v>12</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -13009,11 +13106,11 @@
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="3" t="s">
         <v>36</v>
       </c>
@@ -13023,11 +13120,11 @@
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="3" t="s">
         <v>37</v>
       </c>
@@ -13036,11 +13133,11 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
       <c r="F52" s="3" t="s">
         <v>38</v>
       </c>
@@ -13049,11 +13146,11 @@
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="3" t="s">
         <v>39</v>
       </c>
@@ -13062,11 +13159,11 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="3" t="s">
         <v>41</v>
       </c>
@@ -13075,11 +13172,11 @@
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
       <c r="F55" s="3" t="s">
         <v>42</v>
       </c>
@@ -13088,19 +13185,19 @@
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="37">
+      <c r="A56" s="19">
         <v>13</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D56" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -13111,11 +13208,11 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="3" t="s">
         <v>36</v>
       </c>
@@ -13124,11 +13221,11 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="3" t="s">
         <v>37</v>
       </c>
@@ -13137,11 +13234,11 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="3" t="s">
         <v>38</v>
       </c>
@@ -13150,11 +13247,11 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="37"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="3" t="s">
         <v>39</v>
       </c>
@@ -13163,11 +13260,11 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="37"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
       <c r="F61" s="3" t="s">
         <v>41</v>
       </c>
@@ -13176,11 +13273,11 @@
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="37"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="3" t="s">
         <v>42</v>
       </c>
@@ -13189,19 +13286,19 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="37">
+      <c r="A63" s="19">
         <v>14</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -13211,11 +13308,11 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="37"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
       <c r="F64" s="3" t="s">
         <v>36</v>
       </c>
@@ -13223,11 +13320,11 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
       <c r="F65" s="3" t="s">
         <v>37</v>
       </c>
@@ -13235,11 +13332,11 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="37"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="3" t="s">
         <v>38</v>
       </c>
@@ -13247,11 +13344,11 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="37"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
       <c r="F67" s="3" t="s">
         <v>39</v>
       </c>
@@ -13259,11 +13356,11 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="37"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="3" t="s">
         <v>41</v>
       </c>
@@ -13271,11 +13368,11 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="37"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
       <c r="F69" s="3" t="s">
         <v>42</v>
       </c>
@@ -13285,19 +13382,19 @@
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="37">
+      <c r="A70" s="19">
         <v>15</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -13309,11 +13406,11 @@
       <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="37"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
       <c r="F71" s="3" t="s">
         <v>36</v>
       </c>
@@ -13323,11 +13420,11 @@
       <c r="N71" s="1"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="37"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
       <c r="F72" s="3" t="s">
         <v>37</v>
       </c>
@@ -13337,11 +13434,11 @@
       <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="37"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
       <c r="F73" s="3" t="s">
         <v>38</v>
       </c>
@@ -13351,11 +13448,11 @@
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="37"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
       <c r="F74" s="3" t="s">
         <v>39</v>
       </c>
@@ -13365,11 +13462,11 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="37"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="3" t="s">
         <v>41</v>
       </c>
@@ -13379,11 +13476,11 @@
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="37"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
       <c r="F76" s="3" t="s">
         <v>42</v>
       </c>
@@ -13393,19 +13490,19 @@
       <c r="N76" s="1"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="37">
+      <c r="A77" s="19">
         <v>16</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="39" t="s">
+      <c r="D77" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -13417,11 +13514,11 @@
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="37"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="3" t="s">
         <v>36</v>
       </c>
@@ -13431,11 +13528,11 @@
       <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="37"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
       <c r="F79" s="3" t="s">
         <v>37</v>
       </c>
@@ -13445,11 +13542,11 @@
       <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="37"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
       <c r="F80" s="3" t="s">
         <v>38</v>
       </c>
@@ -13459,11 +13556,11 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="37"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="3" t="s">
         <v>39</v>
       </c>
@@ -13473,11 +13570,11 @@
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="37"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="3" t="s">
         <v>41</v>
       </c>
@@ -13487,11 +13584,11 @@
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="37"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
       <c r="F83" s="3" t="s">
         <v>42</v>
       </c>
@@ -13501,19 +13598,19 @@
       <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="37">
+      <c r="A84" s="19">
         <v>17</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="39" t="s">
+      <c r="D84" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="39" t="s">
+      <c r="E84" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -13525,11 +13622,11 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="37"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="3" t="s">
         <v>36</v>
       </c>
@@ -13539,11 +13636,11 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="37"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="3" t="s">
         <v>37</v>
       </c>
@@ -13553,11 +13650,11 @@
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="37"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="3" t="s">
         <v>38</v>
       </c>
@@ -13567,11 +13664,11 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="37"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
       <c r="F88" s="3" t="s">
         <v>39</v>
       </c>
@@ -13581,11 +13678,11 @@
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="37"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
       <c r="F89" s="3" t="s">
         <v>41</v>
       </c>
@@ -13595,11 +13692,11 @@
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="37"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="3" t="s">
         <v>42</v>
       </c>
@@ -13609,19 +13706,19 @@
       <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="37">
+      <c r="A91" s="19">
         <v>18</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D91" s="39" t="s">
+      <c r="D91" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="39" t="s">
+      <c r="E91" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F91" s="3" t="s">
@@ -13633,11 +13730,11 @@
       <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="37"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
       <c r="F92" s="3" t="s">
         <v>36</v>
       </c>
@@ -13647,11 +13744,11 @@
       <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
       <c r="F93" s="3" t="s">
         <v>37</v>
       </c>
@@ -13661,11 +13758,11 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="37"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="3" t="s">
         <v>38</v>
       </c>
@@ -13675,11 +13772,11 @@
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="37"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="3" t="s">
         <v>39</v>
       </c>
@@ -13689,11 +13786,11 @@
       <c r="N95" s="1"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
       <c r="F96" s="3" t="s">
         <v>41</v>
       </c>
@@ -13703,11 +13800,11 @@
       <c r="N96" s="1"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
       <c r="F97" s="3" t="s">
         <v>42</v>
       </c>
@@ -13717,19 +13814,19 @@
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="37">
+      <c r="A98" s="19">
         <v>19</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D98" s="39" t="s">
+      <c r="D98" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="39" t="s">
+      <c r="E98" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -13741,11 +13838,11 @@
       <c r="N98" s="1"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="37"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
       <c r="F99" s="3" t="s">
         <v>36</v>
       </c>
@@ -13755,11 +13852,11 @@
       <c r="N99" s="1"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="37"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
       <c r="F100" s="3" t="s">
         <v>37</v>
       </c>
@@ -13769,11 +13866,11 @@
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="37"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="3" t="s">
         <v>38</v>
       </c>
@@ -13783,11 +13880,11 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="37"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="3" t="s">
         <v>39</v>
       </c>
@@ -13797,11 +13894,11 @@
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="37"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="3" t="s">
         <v>41</v>
       </c>
@@ -13811,11 +13908,11 @@
       <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="37"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="3" t="s">
         <v>42</v>
       </c>
@@ -13825,19 +13922,19 @@
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="37">
+      <c r="A105" s="19">
         <v>20</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D105" s="39" t="s">
+      <c r="D105" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E105" s="39" t="s">
+      <c r="E105" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F105" s="3" t="s">
@@ -13849,11 +13946,11 @@
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="37"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="3" t="s">
         <v>36</v>
       </c>
@@ -13863,11 +13960,11 @@
       <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="37"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="3" t="s">
         <v>37</v>
       </c>
@@ -13877,11 +13974,11 @@
       <c r="N107" s="1"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="37"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="3" t="s">
         <v>38</v>
       </c>
@@ -13891,11 +13988,11 @@
       <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="37"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
       <c r="F109" s="3" t="s">
         <v>39</v>
       </c>
@@ -13905,11 +14002,11 @@
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="37"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
       <c r="F110" s="3" t="s">
         <v>41</v>
       </c>
@@ -13919,11 +14016,11 @@
       <c r="N110" s="1"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="37"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
       <c r="F111" s="3" t="s">
         <v>42</v>
       </c>
@@ -13933,19 +14030,19 @@
       <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="37">
+      <c r="A112" s="19">
         <v>21</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="41" t="s">
+      <c r="C112" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D112" s="39" t="s">
+      <c r="D112" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="39" t="s">
+      <c r="E112" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F112" s="3" t="s">
@@ -13957,11 +14054,11 @@
       <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="37"/>
-      <c r="B113" s="36"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
       <c r="F113" s="3" t="s">
         <v>36</v>
       </c>
@@ -13971,11 +14068,11 @@
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="37"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
       <c r="F114" s="3" t="s">
         <v>37</v>
       </c>
@@ -13985,11 +14082,11 @@
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="37"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
       <c r="F115" s="3" t="s">
         <v>38</v>
       </c>
@@ -13999,11 +14096,11 @@
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="37"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
       <c r="F116" s="3" t="s">
         <v>39</v>
       </c>
@@ -14013,11 +14110,11 @@
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="37"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
       <c r="F117" s="3" t="s">
         <v>41</v>
       </c>
@@ -14027,11 +14124,11 @@
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="37"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
       <c r="F118" s="3" t="s">
         <v>42</v>
       </c>
@@ -14041,19 +14138,19 @@
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="37">
+      <c r="A119" s="19">
         <v>22</v>
       </c>
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C119" s="41" t="s">
+      <c r="C119" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D119" s="39" t="s">
+      <c r="D119" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="39" t="s">
+      <c r="E119" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F119" s="3" t="s">
@@ -14065,11 +14162,11 @@
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="37"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
       <c r="F120" s="3" t="s">
         <v>36</v>
       </c>
@@ -14079,11 +14176,11 @@
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="37"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
       <c r="F121" s="3" t="s">
         <v>37</v>
       </c>
@@ -14093,11 +14190,11 @@
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="37"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
       <c r="F122" s="3" t="s">
         <v>38</v>
       </c>
@@ -14107,11 +14204,11 @@
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="37"/>
-      <c r="B123" s="36"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
       <c r="F123" s="3" t="s">
         <v>39</v>
       </c>
@@ -14121,11 +14218,11 @@
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="37"/>
-      <c r="B124" s="36"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
       <c r="F124" s="3" t="s">
         <v>41</v>
       </c>
@@ -14135,11 +14232,11 @@
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="37"/>
-      <c r="B125" s="36"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
       <c r="F125" s="3" t="s">
         <v>42</v>
       </c>
@@ -14149,19 +14246,19 @@
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="37">
+      <c r="A126" s="19">
         <v>23</v>
       </c>
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C126" s="41" t="s">
+      <c r="C126" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D126" s="39" t="s">
+      <c r="D126" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E126" s="39" t="s">
+      <c r="E126" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -14173,11 +14270,11 @@
       <c r="N126" s="1"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="37"/>
-      <c r="B127" s="36"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
       <c r="F127" s="3" t="s">
         <v>36</v>
       </c>
@@ -14187,11 +14284,11 @@
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="37"/>
-      <c r="B128" s="36"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="39"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
       <c r="F128" s="3" t="s">
         <v>37</v>
       </c>
@@ -14201,11 +14298,11 @@
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="37"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="39"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
       <c r="F129" s="3" t="s">
         <v>38</v>
       </c>
@@ -14215,11 +14312,11 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="37"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
       <c r="F130" s="3" t="s">
         <v>39</v>
       </c>
@@ -14229,11 +14326,11 @@
       <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="37"/>
-      <c r="B131" s="36"/>
-      <c r="C131" s="41"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
       <c r="F131" s="3" t="s">
         <v>41</v>
       </c>
@@ -14243,11 +14340,11 @@
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="37"/>
-      <c r="B132" s="36"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
       <c r="F132" s="3" t="s">
         <v>42</v>
       </c>
@@ -14257,19 +14354,19 @@
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="37">
+      <c r="A133" s="19">
         <v>24</v>
       </c>
-      <c r="B133" s="36" t="s">
+      <c r="B133" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C133" s="41" t="s">
+      <c r="C133" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D133" s="39" t="s">
+      <c r="D133" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E133" s="39" t="s">
+      <c r="E133" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -14281,11 +14378,11 @@
       <c r="N133" s="1"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="37"/>
-      <c r="B134" s="36"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
       <c r="F134" s="3" t="s">
         <v>36</v>
       </c>
@@ -14295,11 +14392,11 @@
       <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="37"/>
-      <c r="B135" s="36"/>
-      <c r="C135" s="41"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
       <c r="F135" s="3" t="s">
         <v>37</v>
       </c>
@@ -14309,11 +14406,11 @@
       <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="37"/>
-      <c r="B136" s="36"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
       <c r="F136" s="3" t="s">
         <v>38</v>
       </c>
@@ -14323,11 +14420,11 @@
       <c r="N136" s="1"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="37"/>
-      <c r="B137" s="36"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
       <c r="F137" s="3" t="s">
         <v>39</v>
       </c>
@@ -14337,11 +14434,11 @@
       <c r="N137" s="1"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="37"/>
-      <c r="B138" s="36"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
       <c r="F138" s="3" t="s">
         <v>41</v>
       </c>
@@ -14350,11 +14447,11 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="37"/>
-      <c r="B139" s="36"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
       <c r="F139" s="3" t="s">
         <v>42</v>
       </c>
@@ -14363,19 +14460,19 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="37">
+      <c r="A140" s="19">
         <v>25</v>
       </c>
-      <c r="B140" s="36" t="s">
+      <c r="B140" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C140" s="41" t="s">
+      <c r="C140" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D140" s="39" t="s">
+      <c r="D140" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E140" s="39" t="s">
+      <c r="E140" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F140" s="3" t="s">
@@ -14387,11 +14484,11 @@
       <c r="N140" s="1"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="37"/>
-      <c r="B141" s="36"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="22"/>
       <c r="F141" s="3" t="s">
         <v>36</v>
       </c>
@@ -14401,69 +14498,69 @@
       <c r="N141" s="1"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="37"/>
-      <c r="B142" s="36"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
       <c r="F142" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="37"/>
-      <c r="B143" s="36"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
       <c r="F143" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="37"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
       <c r="F144" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="37"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="41"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
       <c r="F145" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="37"/>
-      <c r="B146" s="36"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
       <c r="F146" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="37">
+      <c r="A147" s="19">
         <v>26</v>
       </c>
-      <c r="B147" s="36" t="s">
+      <c r="B147" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C147" s="41" t="s">
+      <c r="C147" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D147" s="39" t="s">
+      <c r="D147" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E147" s="39" t="s">
+      <c r="E147" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F147" s="3" t="s">
@@ -14471,79 +14568,79 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="37"/>
-      <c r="B148" s="36"/>
-      <c r="C148" s="41"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
       <c r="F148" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="37"/>
-      <c r="B149" s="36"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
       <c r="F149" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="37"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="41"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
       <c r="F150" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="37"/>
-      <c r="B151" s="36"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="39"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
       <c r="F151" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="37"/>
-      <c r="B152" s="36"/>
-      <c r="C152" s="41"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="39"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
       <c r="F152" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="37"/>
-      <c r="B153" s="36"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
       <c r="F153" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="37">
+      <c r="A154" s="19">
         <v>27</v>
       </c>
-      <c r="B154" s="36" t="s">
+      <c r="B154" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C154" s="41" t="s">
+      <c r="C154" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D154" s="39" t="s">
+      <c r="D154" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E154" s="39" t="s">
+      <c r="E154" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F154" s="3" t="s">
@@ -14551,79 +14648,79 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="37"/>
-      <c r="B155" s="36"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
       <c r="F155" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="37"/>
-      <c r="B156" s="36"/>
-      <c r="C156" s="41"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="39"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
       <c r="F156" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="37"/>
-      <c r="B157" s="36"/>
-      <c r="C157" s="41"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="39"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="22"/>
       <c r="F157" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="37"/>
-      <c r="B158" s="36"/>
-      <c r="C158" s="41"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="39"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
       <c r="F158" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="37"/>
-      <c r="B159" s="36"/>
-      <c r="C159" s="41"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
       <c r="F159" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="37"/>
-      <c r="B160" s="36"/>
-      <c r="C160" s="41"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
       <c r="F160" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="37">
+      <c r="A161" s="19">
         <v>28</v>
       </c>
-      <c r="B161" s="36" t="s">
+      <c r="B161" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="41" t="s">
+      <c r="C161" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D161" s="39" t="s">
+      <c r="D161" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E161" s="39" t="s">
+      <c r="E161" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F161" s="3" t="s">
@@ -14631,79 +14728,79 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="37"/>
-      <c r="B162" s="36"/>
-      <c r="C162" s="41"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="39"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
       <c r="F162" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="37"/>
-      <c r="B163" s="36"/>
-      <c r="C163" s="41"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="39"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
       <c r="F163" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="37"/>
-      <c r="B164" s="36"/>
-      <c r="C164" s="41"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="39"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
       <c r="F164" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="37"/>
-      <c r="B165" s="36"/>
-      <c r="C165" s="41"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
       <c r="F165" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="37"/>
-      <c r="B166" s="36"/>
-      <c r="C166" s="41"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
       <c r="F166" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="37"/>
-      <c r="B167" s="36"/>
-      <c r="C167" s="41"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
       <c r="F167" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="37">
+      <c r="A168" s="19">
         <v>29</v>
       </c>
-      <c r="B168" s="36" t="s">
+      <c r="B168" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C168" s="41" t="s">
+      <c r="C168" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D168" s="39" t="s">
+      <c r="D168" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="39" t="s">
+      <c r="E168" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F168" s="3" t="s">
@@ -14711,79 +14808,79 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="37"/>
-      <c r="B169" s="36"/>
-      <c r="C169" s="41"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="39"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
       <c r="F169" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="37"/>
-      <c r="B170" s="36"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="39"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
       <c r="F170" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="37"/>
-      <c r="B171" s="36"/>
-      <c r="C171" s="41"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
       <c r="F171" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="37"/>
-      <c r="B172" s="36"/>
-      <c r="C172" s="41"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
       <c r="F172" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="37"/>
-      <c r="B173" s="36"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
       <c r="F173" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="37"/>
-      <c r="B174" s="36"/>
-      <c r="C174" s="41"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="39"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
       <c r="F174" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="37">
+      <c r="A175" s="19">
         <v>30</v>
       </c>
-      <c r="B175" s="36" t="s">
+      <c r="B175" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C175" s="41" t="s">
+      <c r="C175" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D175" s="39" t="s">
+      <c r="D175" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E175" s="39" t="s">
+      <c r="E175" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F175" s="3" t="s">
@@ -14791,79 +14888,79 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="37"/>
-      <c r="B176" s="36"/>
-      <c r="C176" s="41"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="39"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
       <c r="F176" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="37"/>
-      <c r="B177" s="36"/>
-      <c r="C177" s="41"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="39"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
       <c r="F177" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="37"/>
-      <c r="B178" s="36"/>
-      <c r="C178" s="41"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="39"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="22"/>
+      <c r="E178" s="22"/>
       <c r="F178" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="37"/>
-      <c r="B179" s="36"/>
-      <c r="C179" s="41"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="39"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="22"/>
       <c r="F179" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="37"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="41"/>
-      <c r="D180" s="39"/>
-      <c r="E180" s="39"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
       <c r="F180" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="37"/>
-      <c r="B181" s="36"/>
-      <c r="C181" s="41"/>
-      <c r="D181" s="39"/>
-      <c r="E181" s="39"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
       <c r="F181" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="37">
+      <c r="A182" s="19">
         <v>31</v>
       </c>
-      <c r="B182" s="36" t="s">
+      <c r="B182" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C182" s="41" t="s">
+      <c r="C182" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D182" s="39" t="s">
+      <c r="D182" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E182" s="39" t="s">
+      <c r="E182" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F182" s="3" t="s">
@@ -14871,79 +14968,79 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="37"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="41"/>
-      <c r="D183" s="39"/>
-      <c r="E183" s="39"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="22"/>
       <c r="F183" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="37"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="41"/>
-      <c r="D184" s="39"/>
-      <c r="E184" s="39"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
       <c r="F184" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="37"/>
-      <c r="B185" s="36"/>
-      <c r="C185" s="41"/>
-      <c r="D185" s="39"/>
-      <c r="E185" s="39"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="22"/>
       <c r="F185" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="37"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="41"/>
-      <c r="D186" s="39"/>
-      <c r="E186" s="39"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
       <c r="F186" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="37"/>
-      <c r="B187" s="36"/>
-      <c r="C187" s="41"/>
-      <c r="D187" s="39"/>
-      <c r="E187" s="39"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="22"/>
+      <c r="E187" s="22"/>
       <c r="F187" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="37"/>
-      <c r="B188" s="36"/>
-      <c r="C188" s="41"/>
-      <c r="D188" s="39"/>
-      <c r="E188" s="39"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
       <c r="F188" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="37">
+      <c r="A189" s="19">
         <v>32</v>
       </c>
-      <c r="B189" s="36" t="s">
+      <c r="B189" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="41" t="s">
+      <c r="C189" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D189" s="39" t="s">
+      <c r="D189" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E189" s="39" t="s">
+      <c r="E189" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F189" s="3" t="s">
@@ -14951,79 +15048,79 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="37"/>
-      <c r="B190" s="36"/>
-      <c r="C190" s="41"/>
-      <c r="D190" s="39"/>
-      <c r="E190" s="39"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="22"/>
       <c r="F190" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="37"/>
-      <c r="B191" s="36"/>
-      <c r="C191" s="41"/>
-      <c r="D191" s="39"/>
-      <c r="E191" s="39"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
       <c r="F191" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="37"/>
-      <c r="B192" s="36"/>
-      <c r="C192" s="41"/>
-      <c r="D192" s="39"/>
-      <c r="E192" s="39"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
       <c r="F192" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="37"/>
-      <c r="B193" s="36"/>
-      <c r="C193" s="41"/>
-      <c r="D193" s="39"/>
-      <c r="E193" s="39"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
       <c r="F193" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="37"/>
-      <c r="B194" s="36"/>
-      <c r="C194" s="41"/>
-      <c r="D194" s="39"/>
-      <c r="E194" s="39"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="22"/>
+      <c r="E194" s="22"/>
       <c r="F194" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="37"/>
-      <c r="B195" s="36"/>
-      <c r="C195" s="41"/>
-      <c r="D195" s="39"/>
-      <c r="E195" s="39"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
       <c r="F195" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="37">
+      <c r="A196" s="19">
         <v>33</v>
       </c>
-      <c r="B196" s="36" t="s">
+      <c r="B196" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C196" s="41" t="s">
+      <c r="C196" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D196" s="39" t="s">
+      <c r="D196" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E196" s="39" t="s">
+      <c r="E196" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F196" s="3" t="s">
@@ -15031,79 +15128,79 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="37"/>
-      <c r="B197" s="36"/>
-      <c r="C197" s="41"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="39"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="22"/>
+      <c r="E197" s="22"/>
       <c r="F197" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="37"/>
-      <c r="B198" s="36"/>
-      <c r="C198" s="41"/>
-      <c r="D198" s="39"/>
-      <c r="E198" s="39"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22"/>
       <c r="F198" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="37"/>
-      <c r="B199" s="36"/>
-      <c r="C199" s="41"/>
-      <c r="D199" s="39"/>
-      <c r="E199" s="39"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="22"/>
+      <c r="E199" s="22"/>
       <c r="F199" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="37"/>
-      <c r="B200" s="36"/>
-      <c r="C200" s="41"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="39"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
       <c r="F200" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="37"/>
-      <c r="B201" s="36"/>
-      <c r="C201" s="41"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="39"/>
+      <c r="A201" s="19"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
       <c r="F201" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="37"/>
-      <c r="B202" s="36"/>
-      <c r="C202" s="41"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="39"/>
+      <c r="A202" s="19"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
       <c r="F202" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="37">
+      <c r="A203" s="19">
         <v>34</v>
       </c>
-      <c r="B203" s="36" t="s">
+      <c r="B203" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C203" s="41" t="s">
+      <c r="C203" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D203" s="39" t="s">
+      <c r="D203" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E203" s="39" t="s">
+      <c r="E203" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F203" s="3" t="s">
@@ -15111,79 +15208,79 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="37"/>
-      <c r="B204" s="36"/>
-      <c r="C204" s="41"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39"/>
+      <c r="A204" s="19"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
       <c r="F204" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="37"/>
-      <c r="B205" s="36"/>
-      <c r="C205" s="41"/>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
+      <c r="A205" s="19"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
       <c r="F205" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="37"/>
-      <c r="B206" s="36"/>
-      <c r="C206" s="41"/>
-      <c r="D206" s="39"/>
-      <c r="E206" s="39"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="22"/>
+      <c r="E206" s="22"/>
       <c r="F206" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="37"/>
-      <c r="B207" s="36"/>
-      <c r="C207" s="41"/>
-      <c r="D207" s="39"/>
-      <c r="E207" s="39"/>
+      <c r="A207" s="19"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
       <c r="F207" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="37"/>
-      <c r="B208" s="36"/>
-      <c r="C208" s="41"/>
-      <c r="D208" s="39"/>
-      <c r="E208" s="39"/>
+      <c r="A208" s="19"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
       <c r="F208" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="37"/>
-      <c r="B209" s="36"/>
-      <c r="C209" s="41"/>
-      <c r="D209" s="39"/>
-      <c r="E209" s="39"/>
+      <c r="A209" s="19"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="21"/>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
       <c r="F209" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="37">
+      <c r="A210" s="19">
         <v>35</v>
       </c>
-      <c r="B210" s="36" t="s">
+      <c r="B210" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C210" s="41" t="s">
+      <c r="C210" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D210" s="39" t="s">
+      <c r="D210" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E210" s="39" t="s">
+      <c r="E210" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F210" s="3" t="s">
@@ -15191,79 +15288,79 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="37"/>
-      <c r="B211" s="36"/>
-      <c r="C211" s="41"/>
-      <c r="D211" s="39"/>
-      <c r="E211" s="39"/>
+      <c r="A211" s="19"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
       <c r="F211" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="37"/>
-      <c r="B212" s="36"/>
-      <c r="C212" s="41"/>
-      <c r="D212" s="39"/>
-      <c r="E212" s="39"/>
+      <c r="A212" s="19"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="22"/>
+      <c r="E212" s="22"/>
       <c r="F212" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="37"/>
-      <c r="B213" s="36"/>
-      <c r="C213" s="41"/>
-      <c r="D213" s="39"/>
-      <c r="E213" s="39"/>
+      <c r="A213" s="19"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="22"/>
       <c r="F213" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="37"/>
-      <c r="B214" s="36"/>
-      <c r="C214" s="41"/>
-      <c r="D214" s="39"/>
-      <c r="E214" s="39"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
       <c r="F214" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="37"/>
-      <c r="B215" s="36"/>
-      <c r="C215" s="41"/>
-      <c r="D215" s="39"/>
-      <c r="E215" s="39"/>
+      <c r="A215" s="19"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="21"/>
+      <c r="D215" s="22"/>
+      <c r="E215" s="22"/>
       <c r="F215" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="37"/>
-      <c r="B216" s="36"/>
-      <c r="C216" s="41"/>
-      <c r="D216" s="39"/>
-      <c r="E216" s="39"/>
+      <c r="A216" s="19"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="21"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
       <c r="F216" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="37">
+      <c r="A217" s="19">
         <v>36</v>
       </c>
-      <c r="B217" s="36" t="s">
+      <c r="B217" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="41" t="s">
+      <c r="C217" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D217" s="39" t="s">
+      <c r="D217" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E217" s="39" t="s">
+      <c r="E217" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F217" s="3" t="s">
@@ -15271,87 +15368,184 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="37"/>
-      <c r="B218" s="36"/>
-      <c r="C218" s="41"/>
-      <c r="D218" s="39"/>
-      <c r="E218" s="39"/>
+      <c r="A218" s="19"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="22"/>
       <c r="F218" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="37"/>
-      <c r="B219" s="36"/>
-      <c r="C219" s="41"/>
-      <c r="D219" s="39"/>
-      <c r="E219" s="39"/>
+      <c r="A219" s="19"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
       <c r="F219" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="37"/>
-      <c r="B220" s="36"/>
-      <c r="C220" s="41"/>
-      <c r="D220" s="39"/>
-      <c r="E220" s="39"/>
+      <c r="A220" s="19"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="22"/>
       <c r="F220" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="37"/>
-      <c r="B221" s="36"/>
-      <c r="C221" s="41"/>
-      <c r="D221" s="39"/>
-      <c r="E221" s="39"/>
+      <c r="A221" s="19"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="21"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
       <c r="F221" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="37"/>
-      <c r="B222" s="36"/>
-      <c r="C222" s="41"/>
-      <c r="D222" s="39"/>
-      <c r="E222" s="39"/>
+      <c r="A222" s="19"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="22"/>
+      <c r="E222" s="22"/>
       <c r="F222" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="37"/>
-      <c r="B223" s="36"/>
-      <c r="C223" s="41"/>
-      <c r="D223" s="39"/>
-      <c r="E223" s="39"/>
+      <c r="A223" s="19"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="21"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="22"/>
       <c r="F223" s="3" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="A217:A223"/>
-    <mergeCell ref="B217:B223"/>
-    <mergeCell ref="C217:C223"/>
-    <mergeCell ref="D217:D223"/>
-    <mergeCell ref="E217:E223"/>
-    <mergeCell ref="A210:A216"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="D210:D216"/>
-    <mergeCell ref="E210:E216"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="D168:D174"/>
-    <mergeCell ref="E168:E174"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="D175:D181"/>
-    <mergeCell ref="E175:E181"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="D49:D55"/>
+    <mergeCell ref="E49:E55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="E56:E62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="D70:D76"/>
+    <mergeCell ref="E70:E76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="D77:D83"/>
+    <mergeCell ref="E77:E83"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="D84:D90"/>
+    <mergeCell ref="E84:E90"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="A98:A104"/>
+    <mergeCell ref="B98:B104"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="D98:D104"/>
+    <mergeCell ref="E98:E104"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="D112:D118"/>
+    <mergeCell ref="E112:E118"/>
+    <mergeCell ref="A119:A125"/>
+    <mergeCell ref="B119:B125"/>
+    <mergeCell ref="C119:C125"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="E119:E125"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="B126:B132"/>
+    <mergeCell ref="C126:C132"/>
+    <mergeCell ref="D126:D132"/>
+    <mergeCell ref="E126:E132"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="E133:E139"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="D140:D146"/>
+    <mergeCell ref="E140:E146"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="B147:B153"/>
+    <mergeCell ref="C147:C153"/>
+    <mergeCell ref="D147:D153"/>
+    <mergeCell ref="E147:E153"/>
+    <mergeCell ref="A161:A167"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="C161:C167"/>
+    <mergeCell ref="D161:D167"/>
+    <mergeCell ref="E161:E167"/>
+    <mergeCell ref="A154:A160"/>
+    <mergeCell ref="B154:B160"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="E154:E160"/>
     <mergeCell ref="A203:A209"/>
     <mergeCell ref="B203:B209"/>
     <mergeCell ref="C203:C209"/>
@@ -15372,128 +15566,35 @@
     <mergeCell ref="C196:C202"/>
     <mergeCell ref="D196:D202"/>
     <mergeCell ref="E196:E202"/>
-    <mergeCell ref="A147:A153"/>
-    <mergeCell ref="B147:B153"/>
-    <mergeCell ref="C147:C153"/>
-    <mergeCell ref="D147:D153"/>
-    <mergeCell ref="E147:E153"/>
-    <mergeCell ref="A161:A167"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="C161:C167"/>
-    <mergeCell ref="D161:D167"/>
-    <mergeCell ref="E161:E167"/>
-    <mergeCell ref="A154:A160"/>
-    <mergeCell ref="B154:B160"/>
-    <mergeCell ref="C154:C160"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="E154:E160"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="E133:E139"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="D140:D146"/>
-    <mergeCell ref="E140:E146"/>
-    <mergeCell ref="A119:A125"/>
-    <mergeCell ref="B119:B125"/>
-    <mergeCell ref="C119:C125"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="E119:E125"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="B126:B132"/>
-    <mergeCell ref="C126:C132"/>
-    <mergeCell ref="D126:D132"/>
-    <mergeCell ref="E126:E132"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="B112:B118"/>
-    <mergeCell ref="C112:C118"/>
-    <mergeCell ref="D112:D118"/>
-    <mergeCell ref="E112:E118"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="A98:A104"/>
-    <mergeCell ref="B98:B104"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="D98:D104"/>
-    <mergeCell ref="E98:E104"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="D77:D83"/>
-    <mergeCell ref="E77:E83"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="D84:D90"/>
-    <mergeCell ref="E84:E90"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="D70:D76"/>
-    <mergeCell ref="E70:E76"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="D49:D55"/>
-    <mergeCell ref="E49:E55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="D56:D62"/>
-    <mergeCell ref="E56:E62"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="D168:D174"/>
+    <mergeCell ref="E168:E174"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="E175:E181"/>
+    <mergeCell ref="A217:A223"/>
+    <mergeCell ref="B217:B223"/>
+    <mergeCell ref="C217:C223"/>
+    <mergeCell ref="D217:D223"/>
+    <mergeCell ref="E217:E223"/>
+    <mergeCell ref="A210:A216"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="D210:D216"/>
+    <mergeCell ref="E210:E216"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="M29" r:id="rId2"/>
+    <hyperlink ref="M30" r:id="rId3"/>
+    <hyperlink ref="M31" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">

--- a/PABMI/ENTREGABLES/Matriz de Pruebas PABMI_26062023.xlsx
+++ b/PABMI/ENTREGABLES/Matriz de Pruebas PABMI_26062023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\PABMI\ENTREGABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\PABMI\ENTREGABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="122">
   <si>
     <t>Matriz de Pruebas Plataforma de Administración de Bienes Muebles e Inmuebles</t>
   </si>
@@ -447,6 +447,50 @@
   </si>
   <si>
     <t>https://pabmi.atlassian.net/browse/PABMI-502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palabras sin acentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La columna acciones no debería aparecer en la descarga del documento. 
+Cómo debería nombrarse el nombre del documento descargado? 
+Revisar la abreviatura de la (Clave) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exporta Descarga de documento </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingreso Correctamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar al apartado correspondiente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al ingresar al modulo procesos marca error </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-517</t>
+  </si>
+  <si>
+    <t>Al querer agregar un registro arroja un error no identificado.</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presenta Errores Ortograficos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin errores ortograficos </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-519</t>
+  </si>
+  <si>
+    <t>La columna acciones no debería aparecer en la descarga del documento</t>
   </si>
 </sst>
 </file>
@@ -808,22 +852,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,6 +902,22 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -12132,8 +12176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12154,94 +12198,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="32" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
@@ -12438,19 +12482,19 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="37">
         <v>7</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
@@ -12463,11 +12507,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12478,11 +12522,11 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
@@ -12493,11 +12537,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
@@ -12508,11 +12552,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="3" t="s">
         <v>39</v>
       </c>
@@ -12523,11 +12567,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="3" t="s">
         <v>40</v>
       </c>
@@ -12538,11 +12582,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
@@ -12553,11 +12597,11 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="3" t="s">
         <v>42</v>
       </c>
@@ -12568,19 +12612,19 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="37">
         <v>8</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -12593,11 +12637,11 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="3" t="s">
         <v>36</v>
       </c>
@@ -12608,11 +12652,11 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="3" t="s">
         <v>37</v>
       </c>
@@ -12623,11 +12667,11 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="3" t="s">
         <v>38</v>
       </c>
@@ -12637,11 +12681,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="3" t="s">
         <v>39</v>
       </c>
@@ -12652,11 +12696,11 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="3" t="s">
         <v>41</v>
       </c>
@@ -12667,11 +12711,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="3" t="s">
         <v>42</v>
       </c>
@@ -12682,19 +12726,19 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+      <c r="A28" s="37">
         <v>9</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -12703,18 +12747,22 @@
       <c r="G28" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="M28" s="6"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="247.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="3" t="s">
         <v>36</v>
       </c>
@@ -12742,11 +12790,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="231" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="3" t="s">
         <v>37</v>
       </c>
@@ -12774,11 +12822,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="3" t="s">
         <v>38</v>
       </c>
@@ -12806,11 +12854,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="3" t="s">
         <v>39</v>
       </c>
@@ -12824,86 +12872,142 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G33" t="s">
         <v>74</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="2"/>
       <c r="M33" s="6"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+    <row r="34" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="J34" s="2"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+      <c r="K34" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N34" s="1">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="37">
         <v>10</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="J35" s="2"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="K35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N35" s="1">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="37"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
       <c r="F36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="J36" s="2"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="1"/>
+      <c r="K36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N36" s="1">
+        <v>45113</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="2"/>
@@ -12911,13 +13015,16 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -12926,13 +13033,16 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -12941,49 +13051,73 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
       <c r="F40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="M40" s="6"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+    <row r="41" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="37"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="J41" s="2"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="1"/>
+      <c r="K41" t="s">
+        <v>97</v>
+      </c>
+      <c r="L41" t="s">
+        <v>77</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N41" s="1">
+        <v>45113</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="19">
+      <c r="A42" s="37">
         <v>11</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -12996,11 +13130,11 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="3" t="s">
         <v>36</v>
       </c>
@@ -13011,11 +13145,11 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="3" t="s">
         <v>37</v>
       </c>
@@ -13025,11 +13159,11 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
       <c r="F45" s="3" t="s">
         <v>38</v>
       </c>
@@ -13040,11 +13174,11 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="3" t="s">
         <v>39</v>
       </c>
@@ -13054,11 +13188,11 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="3" t="s">
         <v>41</v>
       </c>
@@ -13068,11 +13202,11 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="3" t="s">
         <v>42</v>
       </c>
@@ -13082,19 +13216,19 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="19">
+      <c r="A49" s="37">
         <v>12</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -13106,11 +13240,11 @@
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
       <c r="F50" s="3" t="s">
         <v>36</v>
       </c>
@@ -13120,11 +13254,11 @@
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
       <c r="F51" s="3" t="s">
         <v>37</v>
       </c>
@@ -13133,11 +13267,11 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
       <c r="F52" s="3" t="s">
         <v>38</v>
       </c>
@@ -13146,11 +13280,11 @@
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="3" t="s">
         <v>39</v>
       </c>
@@ -13159,11 +13293,11 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="3" t="s">
         <v>41</v>
       </c>
@@ -13172,11 +13306,11 @@
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
       <c r="F55" s="3" t="s">
         <v>42</v>
       </c>
@@ -13185,19 +13319,19 @@
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="19">
+      <c r="A56" s="37">
         <v>13</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -13208,11 +13342,11 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
       <c r="F57" s="3" t="s">
         <v>36</v>
       </c>
@@ -13221,11 +13355,11 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
       <c r="F58" s="3" t="s">
         <v>37</v>
       </c>
@@ -13234,11 +13368,11 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
       <c r="F59" s="3" t="s">
         <v>38</v>
       </c>
@@ -13247,11 +13381,11 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
       <c r="F60" s="3" t="s">
         <v>39</v>
       </c>
@@ -13260,11 +13394,11 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
       <c r="F61" s="3" t="s">
         <v>41</v>
       </c>
@@ -13273,11 +13407,11 @@
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
       <c r="F62" s="3" t="s">
         <v>42</v>
       </c>
@@ -13286,19 +13420,19 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="19">
+      <c r="A63" s="37">
         <v>14</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -13308,11 +13442,11 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
       <c r="F64" s="3" t="s">
         <v>36</v>
       </c>
@@ -13320,11 +13454,11 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
       <c r="F65" s="3" t="s">
         <v>37</v>
       </c>
@@ -13332,11 +13466,11 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
       <c r="F66" s="3" t="s">
         <v>38</v>
       </c>
@@ -13344,11 +13478,11 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
       <c r="F67" s="3" t="s">
         <v>39</v>
       </c>
@@ -13356,11 +13490,11 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
       <c r="F68" s="3" t="s">
         <v>41</v>
       </c>
@@ -13368,11 +13502,11 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
       <c r="F69" s="3" t="s">
         <v>42</v>
       </c>
@@ -13382,19 +13516,19 @@
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="19">
+      <c r="A70" s="37">
         <v>15</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -13406,11 +13540,11 @@
       <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
       <c r="F71" s="3" t="s">
         <v>36</v>
       </c>
@@ -13420,11 +13554,11 @@
       <c r="N71" s="1"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="3" t="s">
         <v>37</v>
       </c>
@@ -13434,11 +13568,11 @@
       <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
       <c r="F73" s="3" t="s">
         <v>38</v>
       </c>
@@ -13448,11 +13582,11 @@
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="3" t="s">
         <v>39</v>
       </c>
@@ -13462,11 +13596,11 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="3" t="s">
         <v>41</v>
       </c>
@@ -13476,11 +13610,11 @@
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
       <c r="F76" s="3" t="s">
         <v>42</v>
       </c>
@@ -13490,19 +13624,19 @@
       <c r="N76" s="1"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="19">
+      <c r="A77" s="37">
         <v>16</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -13514,11 +13648,11 @@
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
       <c r="F78" s="3" t="s">
         <v>36</v>
       </c>
@@ -13528,11 +13662,11 @@
       <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
       <c r="F79" s="3" t="s">
         <v>37</v>
       </c>
@@ -13542,11 +13676,11 @@
       <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
       <c r="F80" s="3" t="s">
         <v>38</v>
       </c>
@@ -13556,11 +13690,11 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
       <c r="F81" s="3" t="s">
         <v>39</v>
       </c>
@@ -13570,11 +13704,11 @@
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
       <c r="F82" s="3" t="s">
         <v>41</v>
       </c>
@@ -13584,11 +13718,11 @@
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
       <c r="F83" s="3" t="s">
         <v>42</v>
       </c>
@@ -13598,19 +13732,19 @@
       <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="19">
+      <c r="A84" s="37">
         <v>17</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -13622,11 +13756,11 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
       <c r="F85" s="3" t="s">
         <v>36</v>
       </c>
@@ -13636,11 +13770,11 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
       <c r="F86" s="3" t="s">
         <v>37</v>
       </c>
@@ -13650,11 +13784,11 @@
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
       <c r="F87" s="3" t="s">
         <v>38</v>
       </c>
@@ -13664,11 +13798,11 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
       <c r="F88" s="3" t="s">
         <v>39</v>
       </c>
@@ -13678,11 +13812,11 @@
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
       <c r="F89" s="3" t="s">
         <v>41</v>
       </c>
@@ -13692,11 +13826,11 @@
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
       <c r="F90" s="3" t="s">
         <v>42</v>
       </c>
@@ -13706,19 +13840,19 @@
       <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="19">
+      <c r="A91" s="37">
         <v>18</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F91" s="3" t="s">
@@ -13730,11 +13864,11 @@
       <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
       <c r="F92" s="3" t="s">
         <v>36</v>
       </c>
@@ -13744,11 +13878,11 @@
       <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
       <c r="F93" s="3" t="s">
         <v>37</v>
       </c>
@@ -13758,11 +13892,11 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
       <c r="F94" s="3" t="s">
         <v>38</v>
       </c>
@@ -13772,11 +13906,11 @@
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
       <c r="F95" s="3" t="s">
         <v>39</v>
       </c>
@@ -13786,11 +13920,11 @@
       <c r="N95" s="1"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
       <c r="F96" s="3" t="s">
         <v>41</v>
       </c>
@@ -13800,11 +13934,11 @@
       <c r="N96" s="1"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
       <c r="F97" s="3" t="s">
         <v>42</v>
       </c>
@@ -13814,19 +13948,19 @@
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="19">
+      <c r="A98" s="37">
         <v>19</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="E98" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -13838,11 +13972,11 @@
       <c r="N98" s="1"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
       <c r="F99" s="3" t="s">
         <v>36</v>
       </c>
@@ -13852,11 +13986,11 @@
       <c r="N99" s="1"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
       <c r="F100" s="3" t="s">
         <v>37</v>
       </c>
@@ -13866,11 +14000,11 @@
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
       <c r="F101" s="3" t="s">
         <v>38</v>
       </c>
@@ -13880,11 +14014,11 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
       <c r="F102" s="3" t="s">
         <v>39</v>
       </c>
@@ -13894,11 +14028,11 @@
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
       <c r="F103" s="3" t="s">
         <v>41</v>
       </c>
@@ -13908,11 +14042,11 @@
       <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="19"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
       <c r="F104" s="3" t="s">
         <v>42</v>
       </c>
@@ -13922,19 +14056,19 @@
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="19">
+      <c r="A105" s="37">
         <v>20</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D105" s="22" t="s">
+      <c r="D105" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F105" s="3" t="s">
@@ -13946,11 +14080,11 @@
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="19"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
       <c r="F106" s="3" t="s">
         <v>36</v>
       </c>
@@ -13960,11 +14094,11 @@
       <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="19"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
       <c r="F107" s="3" t="s">
         <v>37</v>
       </c>
@@ -13974,11 +14108,11 @@
       <c r="N107" s="1"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="19"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
       <c r="F108" s="3" t="s">
         <v>38</v>
       </c>
@@ -13988,11 +14122,11 @@
       <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
       <c r="F109" s="3" t="s">
         <v>39</v>
       </c>
@@ -14002,11 +14136,11 @@
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="19"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
       <c r="F110" s="3" t="s">
         <v>41</v>
       </c>
@@ -14016,11 +14150,11 @@
       <c r="N110" s="1"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
       <c r="F111" s="3" t="s">
         <v>42</v>
       </c>
@@ -14030,19 +14164,19 @@
       <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="19">
+      <c r="A112" s="37">
         <v>21</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="22" t="s">
+      <c r="E112" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F112" s="3" t="s">
@@ -14054,11 +14188,11 @@
       <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
       <c r="F113" s="3" t="s">
         <v>36</v>
       </c>
@@ -14068,11 +14202,11 @@
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="19"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
       <c r="F114" s="3" t="s">
         <v>37</v>
       </c>
@@ -14082,11 +14216,11 @@
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="19"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
       <c r="F115" s="3" t="s">
         <v>38</v>
       </c>
@@ -14096,11 +14230,11 @@
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="19"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
       <c r="F116" s="3" t="s">
         <v>39</v>
       </c>
@@ -14110,11 +14244,11 @@
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="19"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
       <c r="F117" s="3" t="s">
         <v>41</v>
       </c>
@@ -14124,11 +14258,11 @@
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="19"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
       <c r="F118" s="3" t="s">
         <v>42</v>
       </c>
@@ -14138,19 +14272,19 @@
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="19">
+      <c r="A119" s="37">
         <v>22</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="D119" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="22" t="s">
+      <c r="E119" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F119" s="3" t="s">
@@ -14162,11 +14296,11 @@
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="19"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
       <c r="F120" s="3" t="s">
         <v>36</v>
       </c>
@@ -14176,11 +14310,11 @@
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="19"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
       <c r="F121" s="3" t="s">
         <v>37</v>
       </c>
@@ -14190,11 +14324,11 @@
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="19"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
       <c r="F122" s="3" t="s">
         <v>38</v>
       </c>
@@ -14204,11 +14338,11 @@
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="19"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
       <c r="F123" s="3" t="s">
         <v>39</v>
       </c>
@@ -14218,11 +14352,11 @@
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="19"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="39"/>
       <c r="F124" s="3" t="s">
         <v>41</v>
       </c>
@@ -14232,11 +14366,11 @@
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
       <c r="F125" s="3" t="s">
         <v>42</v>
       </c>
@@ -14246,19 +14380,19 @@
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="19">
+      <c r="A126" s="37">
         <v>23</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E126" s="22" t="s">
+      <c r="E126" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -14270,11 +14404,11 @@
       <c r="N126" s="1"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="19"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
       <c r="F127" s="3" t="s">
         <v>36</v>
       </c>
@@ -14284,11 +14418,11 @@
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="19"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="39"/>
       <c r="F128" s="3" t="s">
         <v>37</v>
       </c>
@@ -14298,11 +14432,11 @@
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="19"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="39"/>
       <c r="F129" s="3" t="s">
         <v>38</v>
       </c>
@@ -14312,11 +14446,11 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="19"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="39"/>
       <c r="F130" s="3" t="s">
         <v>39</v>
       </c>
@@ -14326,11 +14460,11 @@
       <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="19"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
       <c r="F131" s="3" t="s">
         <v>41</v>
       </c>
@@ -14340,11 +14474,11 @@
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="19"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
       <c r="F132" s="3" t="s">
         <v>42</v>
       </c>
@@ -14354,19 +14488,19 @@
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="19">
+      <c r="A133" s="37">
         <v>24</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E133" s="22" t="s">
+      <c r="E133" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -14378,11 +14512,11 @@
       <c r="N133" s="1"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="19"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="39"/>
       <c r="F134" s="3" t="s">
         <v>36</v>
       </c>
@@ -14392,11 +14526,11 @@
       <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="19"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
       <c r="F135" s="3" t="s">
         <v>37</v>
       </c>
@@ -14406,11 +14540,11 @@
       <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="19"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="39"/>
       <c r="F136" s="3" t="s">
         <v>38</v>
       </c>
@@ -14420,11 +14554,11 @@
       <c r="N136" s="1"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="19"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="22"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
       <c r="F137" s="3" t="s">
         <v>39</v>
       </c>
@@ -14434,11 +14568,11 @@
       <c r="N137" s="1"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="19"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="22"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
       <c r="F138" s="3" t="s">
         <v>41</v>
       </c>
@@ -14447,11 +14581,11 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="19"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="36"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
       <c r="F139" s="3" t="s">
         <v>42</v>
       </c>
@@ -14460,19 +14594,19 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="19">
+      <c r="A140" s="37">
         <v>25</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D140" s="22" t="s">
+      <c r="D140" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E140" s="22" t="s">
+      <c r="E140" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F140" s="3" t="s">
@@ -14484,11 +14618,11 @@
       <c r="N140" s="1"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="19"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="22"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="39"/>
       <c r="F141" s="3" t="s">
         <v>36</v>
       </c>
@@ -14498,69 +14632,69 @@
       <c r="N141" s="1"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="19"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="22"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39"/>
       <c r="F142" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="19"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
       <c r="F143" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="19"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39"/>
       <c r="F144" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="19"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="39"/>
       <c r="F145" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="19"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="39"/>
       <c r="F146" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="19">
+      <c r="A147" s="37">
         <v>26</v>
       </c>
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D147" s="22" t="s">
+      <c r="D147" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E147" s="22" t="s">
+      <c r="E147" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F147" s="3" t="s">
@@ -14568,79 +14702,79 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="19"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
+      <c r="A148" s="37"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="41"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="39"/>
       <c r="F148" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="19"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
+      <c r="A149" s="37"/>
+      <c r="B149" s="36"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
       <c r="F149" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="19"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
+      <c r="A150" s="37"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="39"/>
       <c r="F150" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="19"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
+      <c r="A151" s="37"/>
+      <c r="B151" s="36"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="39"/>
       <c r="F151" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="19"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
+      <c r="A152" s="37"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="39"/>
       <c r="F152" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="19"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="22"/>
+      <c r="A153" s="37"/>
+      <c r="B153" s="36"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="39"/>
       <c r="F153" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="19">
+      <c r="A154" s="37">
         <v>27</v>
       </c>
-      <c r="B154" s="20" t="s">
+      <c r="B154" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="D154" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E154" s="22" t="s">
+      <c r="E154" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F154" s="3" t="s">
@@ -14648,79 +14782,79 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
+      <c r="A155" s="37"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="39"/>
       <c r="F155" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="19"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="22"/>
+      <c r="A156" s="37"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="39"/>
       <c r="F156" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="19"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="22"/>
+      <c r="A157" s="37"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="39"/>
       <c r="F157" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="19"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="22"/>
-      <c r="E158" s="22"/>
+      <c r="A158" s="37"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="39"/>
       <c r="F158" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="19"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
+      <c r="A159" s="37"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="39"/>
       <c r="F159" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="19"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
+      <c r="A160" s="37"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="41"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="39"/>
       <c r="F160" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="19">
+      <c r="A161" s="37">
         <v>28</v>
       </c>
-      <c r="B161" s="20" t="s">
+      <c r="B161" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="21" t="s">
+      <c r="C161" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D161" s="22" t="s">
+      <c r="D161" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E161" s="22" t="s">
+      <c r="E161" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F161" s="3" t="s">
@@ -14728,79 +14862,79 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="19"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="21"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="22"/>
+      <c r="A162" s="37"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="41"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="39"/>
       <c r="F162" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="21"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
+      <c r="A163" s="37"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="41"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="39"/>
       <c r="F163" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="19"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="22"/>
+      <c r="A164" s="37"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="39"/>
       <c r="F164" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="19"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
+      <c r="A165" s="37"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="41"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="39"/>
       <c r="F165" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="19"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="21"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="22"/>
+      <c r="A166" s="37"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="41"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
       <c r="F166" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="19"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="22"/>
-      <c r="E167" s="22"/>
+      <c r="A167" s="37"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
       <c r="F167" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="19">
+      <c r="A168" s="37">
         <v>29</v>
       </c>
-      <c r="B168" s="20" t="s">
+      <c r="B168" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D168" s="22" t="s">
+      <c r="D168" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="22" t="s">
+      <c r="E168" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F168" s="3" t="s">
@@ -14808,79 +14942,79 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="22"/>
-      <c r="E169" s="22"/>
+      <c r="A169" s="37"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="39"/>
       <c r="F169" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="19"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="22"/>
-      <c r="E170" s="22"/>
+      <c r="A170" s="37"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="39"/>
       <c r="F170" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="22"/>
-      <c r="E171" s="22"/>
+      <c r="A171" s="37"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
       <c r="F171" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="21"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="22"/>
+      <c r="A172" s="37"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
       <c r="F172" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="21"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="22"/>
+      <c r="A173" s="37"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="39"/>
       <c r="F173" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="19"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="22"/>
-      <c r="E174" s="22"/>
+      <c r="A174" s="37"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="39"/>
       <c r="F174" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="19">
+      <c r="A175" s="37">
         <v>30</v>
       </c>
-      <c r="B175" s="20" t="s">
+      <c r="B175" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D175" s="22" t="s">
+      <c r="D175" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E175" s="22" t="s">
+      <c r="E175" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F175" s="3" t="s">
@@ -14888,79 +15022,79 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="19"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="21"/>
-      <c r="D176" s="22"/>
-      <c r="E176" s="22"/>
+      <c r="A176" s="37"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="39"/>
       <c r="F176" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="22"/>
+      <c r="A177" s="37"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="39"/>
       <c r="F177" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="19"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="22"/>
-      <c r="E178" s="22"/>
+      <c r="A178" s="37"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="41"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="39"/>
       <c r="F178" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="21"/>
-      <c r="D179" s="22"/>
-      <c r="E179" s="22"/>
+      <c r="A179" s="37"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="39"/>
       <c r="F179" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="21"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="22"/>
+      <c r="A180" s="37"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="39"/>
+      <c r="E180" s="39"/>
       <c r="F180" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="22"/>
+      <c r="A181" s="37"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="39"/>
+      <c r="E181" s="39"/>
       <c r="F181" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="19">
+      <c r="A182" s="37">
         <v>31</v>
       </c>
-      <c r="B182" s="20" t="s">
+      <c r="B182" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D182" s="22" t="s">
+      <c r="D182" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E182" s="22" t="s">
+      <c r="E182" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F182" s="3" t="s">
@@ -14968,79 +15102,79 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="22"/>
-      <c r="E183" s="22"/>
+      <c r="A183" s="37"/>
+      <c r="B183" s="36"/>
+      <c r="C183" s="41"/>
+      <c r="D183" s="39"/>
+      <c r="E183" s="39"/>
       <c r="F183" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="22"/>
-      <c r="E184" s="22"/>
+      <c r="A184" s="37"/>
+      <c r="B184" s="36"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="39"/>
       <c r="F184" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="22"/>
-      <c r="E185" s="22"/>
+      <c r="A185" s="37"/>
+      <c r="B185" s="36"/>
+      <c r="C185" s="41"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="39"/>
       <c r="F185" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="21"/>
-      <c r="D186" s="22"/>
-      <c r="E186" s="22"/>
+      <c r="A186" s="37"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="41"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="39"/>
       <c r="F186" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="22"/>
-      <c r="E187" s="22"/>
+      <c r="A187" s="37"/>
+      <c r="B187" s="36"/>
+      <c r="C187" s="41"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="39"/>
       <c r="F187" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="22"/>
-      <c r="E188" s="22"/>
+      <c r="A188" s="37"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="41"/>
+      <c r="D188" s="39"/>
+      <c r="E188" s="39"/>
       <c r="F188" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="19">
+      <c r="A189" s="37">
         <v>32</v>
       </c>
-      <c r="B189" s="20" t="s">
+      <c r="B189" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="21" t="s">
+      <c r="C189" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D189" s="22" t="s">
+      <c r="D189" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E189" s="22" t="s">
+      <c r="E189" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F189" s="3" t="s">
@@ -15048,79 +15182,79 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="22"/>
-      <c r="E190" s="22"/>
+      <c r="A190" s="37"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="41"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="39"/>
       <c r="F190" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="22"/>
-      <c r="E191" s="22"/>
+      <c r="A191" s="37"/>
+      <c r="B191" s="36"/>
+      <c r="C191" s="41"/>
+      <c r="D191" s="39"/>
+      <c r="E191" s="39"/>
       <c r="F191" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="22"/>
-      <c r="E192" s="22"/>
+      <c r="A192" s="37"/>
+      <c r="B192" s="36"/>
+      <c r="C192" s="41"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="39"/>
       <c r="F192" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="22"/>
+      <c r="A193" s="37"/>
+      <c r="B193" s="36"/>
+      <c r="C193" s="41"/>
+      <c r="D193" s="39"/>
+      <c r="E193" s="39"/>
       <c r="F193" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="21"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="22"/>
+      <c r="A194" s="37"/>
+      <c r="B194" s="36"/>
+      <c r="C194" s="41"/>
+      <c r="D194" s="39"/>
+      <c r="E194" s="39"/>
       <c r="F194" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="21"/>
-      <c r="D195" s="22"/>
-      <c r="E195" s="22"/>
+      <c r="A195" s="37"/>
+      <c r="B195" s="36"/>
+      <c r="C195" s="41"/>
+      <c r="D195" s="39"/>
+      <c r="E195" s="39"/>
       <c r="F195" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="19">
+      <c r="A196" s="37">
         <v>33</v>
       </c>
-      <c r="B196" s="20" t="s">
+      <c r="B196" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C196" s="21" t="s">
+      <c r="C196" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D196" s="22" t="s">
+      <c r="D196" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E196" s="22" t="s">
+      <c r="E196" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F196" s="3" t="s">
@@ -15128,79 +15262,79 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="21"/>
-      <c r="D197" s="22"/>
-      <c r="E197" s="22"/>
+      <c r="A197" s="37"/>
+      <c r="B197" s="36"/>
+      <c r="C197" s="41"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
       <c r="F197" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="19"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="22"/>
-      <c r="E198" s="22"/>
+      <c r="A198" s="37"/>
+      <c r="B198" s="36"/>
+      <c r="C198" s="41"/>
+      <c r="D198" s="39"/>
+      <c r="E198" s="39"/>
       <c r="F198" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="21"/>
-      <c r="D199" s="22"/>
-      <c r="E199" s="22"/>
+      <c r="A199" s="37"/>
+      <c r="B199" s="36"/>
+      <c r="C199" s="41"/>
+      <c r="D199" s="39"/>
+      <c r="E199" s="39"/>
       <c r="F199" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="19"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="21"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22"/>
+      <c r="A200" s="37"/>
+      <c r="B200" s="36"/>
+      <c r="C200" s="41"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="39"/>
       <c r="F200" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="19"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="22"/>
+      <c r="A201" s="37"/>
+      <c r="B201" s="36"/>
+      <c r="C201" s="41"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="39"/>
       <c r="F201" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="19"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="22"/>
-      <c r="E202" s="22"/>
+      <c r="A202" s="37"/>
+      <c r="B202" s="36"/>
+      <c r="C202" s="41"/>
+      <c r="D202" s="39"/>
+      <c r="E202" s="39"/>
       <c r="F202" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="19">
+      <c r="A203" s="37">
         <v>34</v>
       </c>
-      <c r="B203" s="20" t="s">
+      <c r="B203" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C203" s="21" t="s">
+      <c r="C203" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D203" s="22" t="s">
+      <c r="D203" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E203" s="22" t="s">
+      <c r="E203" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F203" s="3" t="s">
@@ -15208,79 +15342,79 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="19"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="21"/>
-      <c r="D204" s="22"/>
-      <c r="E204" s="22"/>
+      <c r="A204" s="37"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="41"/>
+      <c r="D204" s="39"/>
+      <c r="E204" s="39"/>
       <c r="F204" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="19"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="22"/>
-      <c r="E205" s="22"/>
+      <c r="A205" s="37"/>
+      <c r="B205" s="36"/>
+      <c r="C205" s="41"/>
+      <c r="D205" s="39"/>
+      <c r="E205" s="39"/>
       <c r="F205" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="19"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="22"/>
-      <c r="E206" s="22"/>
+      <c r="A206" s="37"/>
+      <c r="B206" s="36"/>
+      <c r="C206" s="41"/>
+      <c r="D206" s="39"/>
+      <c r="E206" s="39"/>
       <c r="F206" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="19"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="21"/>
-      <c r="D207" s="22"/>
-      <c r="E207" s="22"/>
+      <c r="A207" s="37"/>
+      <c r="B207" s="36"/>
+      <c r="C207" s="41"/>
+      <c r="D207" s="39"/>
+      <c r="E207" s="39"/>
       <c r="F207" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="19"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="21"/>
-      <c r="D208" s="22"/>
-      <c r="E208" s="22"/>
+      <c r="A208" s="37"/>
+      <c r="B208" s="36"/>
+      <c r="C208" s="41"/>
+      <c r="D208" s="39"/>
+      <c r="E208" s="39"/>
       <c r="F208" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="19"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="21"/>
-      <c r="D209" s="22"/>
-      <c r="E209" s="22"/>
+      <c r="A209" s="37"/>
+      <c r="B209" s="36"/>
+      <c r="C209" s="41"/>
+      <c r="D209" s="39"/>
+      <c r="E209" s="39"/>
       <c r="F209" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="19">
+      <c r="A210" s="37">
         <v>35</v>
       </c>
-      <c r="B210" s="20" t="s">
+      <c r="B210" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C210" s="21" t="s">
+      <c r="C210" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D210" s="22" t="s">
+      <c r="D210" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E210" s="22" t="s">
+      <c r="E210" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F210" s="3" t="s">
@@ -15288,79 +15422,79 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="19"/>
-      <c r="B211" s="20"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="22"/>
-      <c r="E211" s="22"/>
+      <c r="A211" s="37"/>
+      <c r="B211" s="36"/>
+      <c r="C211" s="41"/>
+      <c r="D211" s="39"/>
+      <c r="E211" s="39"/>
       <c r="F211" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="19"/>
-      <c r="B212" s="20"/>
-      <c r="C212" s="21"/>
-      <c r="D212" s="22"/>
-      <c r="E212" s="22"/>
+      <c r="A212" s="37"/>
+      <c r="B212" s="36"/>
+      <c r="C212" s="41"/>
+      <c r="D212" s="39"/>
+      <c r="E212" s="39"/>
       <c r="F212" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="19"/>
-      <c r="B213" s="20"/>
-      <c r="C213" s="21"/>
-      <c r="D213" s="22"/>
-      <c r="E213" s="22"/>
+      <c r="A213" s="37"/>
+      <c r="B213" s="36"/>
+      <c r="C213" s="41"/>
+      <c r="D213" s="39"/>
+      <c r="E213" s="39"/>
       <c r="F213" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="19"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="21"/>
-      <c r="D214" s="22"/>
-      <c r="E214" s="22"/>
+      <c r="A214" s="37"/>
+      <c r="B214" s="36"/>
+      <c r="C214" s="41"/>
+      <c r="D214" s="39"/>
+      <c r="E214" s="39"/>
       <c r="F214" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="19"/>
-      <c r="B215" s="20"/>
-      <c r="C215" s="21"/>
-      <c r="D215" s="22"/>
-      <c r="E215" s="22"/>
+      <c r="A215" s="37"/>
+      <c r="B215" s="36"/>
+      <c r="C215" s="41"/>
+      <c r="D215" s="39"/>
+      <c r="E215" s="39"/>
       <c r="F215" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="19"/>
-      <c r="B216" s="20"/>
-      <c r="C216" s="21"/>
-      <c r="D216" s="22"/>
-      <c r="E216" s="22"/>
+      <c r="A216" s="37"/>
+      <c r="B216" s="36"/>
+      <c r="C216" s="41"/>
+      <c r="D216" s="39"/>
+      <c r="E216" s="39"/>
       <c r="F216" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="19">
+      <c r="A217" s="37">
         <v>36</v>
       </c>
-      <c r="B217" s="20" t="s">
+      <c r="B217" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C217" s="21" t="s">
+      <c r="C217" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D217" s="22" t="s">
+      <c r="D217" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E217" s="22" t="s">
+      <c r="E217" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F217" s="3" t="s">
@@ -15368,184 +15502,87 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="19"/>
-      <c r="B218" s="20"/>
-      <c r="C218" s="21"/>
-      <c r="D218" s="22"/>
-      <c r="E218" s="22"/>
+      <c r="A218" s="37"/>
+      <c r="B218" s="36"/>
+      <c r="C218" s="41"/>
+      <c r="D218" s="39"/>
+      <c r="E218" s="39"/>
       <c r="F218" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="19"/>
-      <c r="B219" s="20"/>
-      <c r="C219" s="21"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22"/>
+      <c r="A219" s="37"/>
+      <c r="B219" s="36"/>
+      <c r="C219" s="41"/>
+      <c r="D219" s="39"/>
+      <c r="E219" s="39"/>
       <c r="F219" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="19"/>
-      <c r="B220" s="20"/>
-      <c r="C220" s="21"/>
-      <c r="D220" s="22"/>
-      <c r="E220" s="22"/>
+      <c r="A220" s="37"/>
+      <c r="B220" s="36"/>
+      <c r="C220" s="41"/>
+      <c r="D220" s="39"/>
+      <c r="E220" s="39"/>
       <c r="F220" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="19"/>
-      <c r="B221" s="20"/>
-      <c r="C221" s="21"/>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
+      <c r="A221" s="37"/>
+      <c r="B221" s="36"/>
+      <c r="C221" s="41"/>
+      <c r="D221" s="39"/>
+      <c r="E221" s="39"/>
       <c r="F221" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="19"/>
-      <c r="B222" s="20"/>
-      <c r="C222" s="21"/>
-      <c r="D222" s="22"/>
-      <c r="E222" s="22"/>
+      <c r="A222" s="37"/>
+      <c r="B222" s="36"/>
+      <c r="C222" s="41"/>
+      <c r="D222" s="39"/>
+      <c r="E222" s="39"/>
       <c r="F222" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="19"/>
-      <c r="B223" s="20"/>
-      <c r="C223" s="21"/>
-      <c r="D223" s="22"/>
-      <c r="E223" s="22"/>
+      <c r="A223" s="37"/>
+      <c r="B223" s="36"/>
+      <c r="C223" s="41"/>
+      <c r="D223" s="39"/>
+      <c r="E223" s="39"/>
       <c r="F223" s="3" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="D49:D55"/>
-    <mergeCell ref="E49:E55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="D56:D62"/>
-    <mergeCell ref="E56:E62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="D70:D76"/>
-    <mergeCell ref="E70:E76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="D77:D83"/>
-    <mergeCell ref="E77:E83"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="D84:D90"/>
-    <mergeCell ref="E84:E90"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="A98:A104"/>
-    <mergeCell ref="B98:B104"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="D98:D104"/>
-    <mergeCell ref="E98:E104"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="B112:B118"/>
-    <mergeCell ref="C112:C118"/>
-    <mergeCell ref="D112:D118"/>
-    <mergeCell ref="E112:E118"/>
-    <mergeCell ref="A119:A125"/>
-    <mergeCell ref="B119:B125"/>
-    <mergeCell ref="C119:C125"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="E119:E125"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="B126:B132"/>
-    <mergeCell ref="C126:C132"/>
-    <mergeCell ref="D126:D132"/>
-    <mergeCell ref="E126:E132"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="E133:E139"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="D140:D146"/>
-    <mergeCell ref="E140:E146"/>
-    <mergeCell ref="A147:A153"/>
-    <mergeCell ref="B147:B153"/>
-    <mergeCell ref="C147:C153"/>
-    <mergeCell ref="D147:D153"/>
-    <mergeCell ref="E147:E153"/>
-    <mergeCell ref="A161:A167"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="C161:C167"/>
-    <mergeCell ref="D161:D167"/>
-    <mergeCell ref="E161:E167"/>
-    <mergeCell ref="A154:A160"/>
-    <mergeCell ref="B154:B160"/>
-    <mergeCell ref="C154:C160"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="E154:E160"/>
+    <mergeCell ref="A217:A223"/>
+    <mergeCell ref="B217:B223"/>
+    <mergeCell ref="C217:C223"/>
+    <mergeCell ref="D217:D223"/>
+    <mergeCell ref="E217:E223"/>
+    <mergeCell ref="A210:A216"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="D210:D216"/>
+    <mergeCell ref="E210:E216"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="D168:D174"/>
+    <mergeCell ref="E168:E174"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="E175:E181"/>
     <mergeCell ref="A203:A209"/>
     <mergeCell ref="B203:B209"/>
     <mergeCell ref="C203:C209"/>
@@ -15566,35 +15603,134 @@
     <mergeCell ref="C196:C202"/>
     <mergeCell ref="D196:D202"/>
     <mergeCell ref="E196:E202"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="D168:D174"/>
-    <mergeCell ref="E168:E174"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="D175:D181"/>
-    <mergeCell ref="E175:E181"/>
-    <mergeCell ref="A217:A223"/>
-    <mergeCell ref="B217:B223"/>
-    <mergeCell ref="C217:C223"/>
-    <mergeCell ref="D217:D223"/>
-    <mergeCell ref="E217:E223"/>
-    <mergeCell ref="A210:A216"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="D210:D216"/>
-    <mergeCell ref="E210:E216"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="B147:B153"/>
+    <mergeCell ref="C147:C153"/>
+    <mergeCell ref="D147:D153"/>
+    <mergeCell ref="E147:E153"/>
+    <mergeCell ref="A161:A167"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="C161:C167"/>
+    <mergeCell ref="D161:D167"/>
+    <mergeCell ref="E161:E167"/>
+    <mergeCell ref="A154:A160"/>
+    <mergeCell ref="B154:B160"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="E154:E160"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="E133:E139"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="D140:D146"/>
+    <mergeCell ref="E140:E146"/>
+    <mergeCell ref="A119:A125"/>
+    <mergeCell ref="B119:B125"/>
+    <mergeCell ref="C119:C125"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="E119:E125"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="B126:B132"/>
+    <mergeCell ref="C126:C132"/>
+    <mergeCell ref="D126:D132"/>
+    <mergeCell ref="E126:E132"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="D112:D118"/>
+    <mergeCell ref="E112:E118"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="A98:A104"/>
+    <mergeCell ref="B98:B104"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="D98:D104"/>
+    <mergeCell ref="E98:E104"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="D77:D83"/>
+    <mergeCell ref="E77:E83"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="D84:D90"/>
+    <mergeCell ref="E84:E90"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="D70:D76"/>
+    <mergeCell ref="E70:E76"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="D49:D55"/>
+    <mergeCell ref="E49:E55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="E56:E62"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="M29" r:id="rId2"/>
     <hyperlink ref="M30" r:id="rId3"/>
     <hyperlink ref="M31" r:id="rId4"/>
+    <hyperlink ref="M34" r:id="rId5"/>
+    <hyperlink ref="M36" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">

--- a/PABMI/ENTREGABLES/Matriz de Pruebas PABMI_26062023.xlsx
+++ b/PABMI/ENTREGABLES/Matriz de Pruebas PABMI_26062023.xlsx
@@ -16,9 +16,12 @@
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$223</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,15 +116,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="153">
   <si>
     <t>Matriz de Pruebas Plataforma de Administración de Bienes Muebles e Inmuebles</t>
   </si>
   <si>
     <t>Proyecto: Plataforma de Administración de Bienes Muebles e Inmuebles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester: Erika Ortiz </t>
   </si>
   <si>
     <t>Ambiente QA</t>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t xml:space="preserve">Principal </t>
-  </si>
-  <si>
-    <t>Menú Incicio</t>
   </si>
   <si>
     <t>Despliegue</t>
@@ -469,16 +466,10 @@
     <t xml:space="preserve">Ingresar al apartado correspondiente </t>
   </si>
   <si>
-    <t xml:space="preserve">Al ingresar al modulo procesos marca error </t>
-  </si>
-  <si>
     <t>https://pabmi.atlassian.net/browse/PABMI-517</t>
   </si>
   <si>
     <t>Al querer agregar un registro arroja un error no identificado.</t>
-  </si>
-  <si>
-    <t>https://pabmi.atlassian.net/browse/PABMI-518</t>
   </si>
   <si>
     <t xml:space="preserve">Presenta Errores Ortograficos </t>
@@ -491,6 +482,138 @@
   </si>
   <si>
     <t>La columna acciones no debería aparecer en la descarga del documento</t>
+  </si>
+  <si>
+    <t>Menú Inicio</t>
+  </si>
+  <si>
+    <t>Tester: Iris Lechuga</t>
+  </si>
+  <si>
+    <t>Se ingresa al sistema PABMI, se despliega el menú donde se presentan todas las opciones, se selecciona la opción de “Configuración” enseguida se muestra un nuevo menú con dos opciones y se elige la opción de Catálogos, al dar clic se espera que el menú inicial se cierre, pero este no lo hace se queda en pantalla y se tiene que dar clic en la parte derecha para que se cierre</t>
+  </si>
+  <si>
+    <t>Despliegue de menú</t>
+  </si>
+  <si>
+    <t>Se ingresa al sistema PABMI, se despliega el menú donde se presentan todas las opciones, se localiza un problema de ortografía en la opción de Catálogos.</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-496</t>
+  </si>
+  <si>
+    <t>Se presentan problemas de ortografía al ingresar al catálogo de empleados.-Texto en ingles -Falta separar el texto -validar si los campos iniciales se quedaran como Cve o se indicara un dato más claro para el usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error al intentar guardar registro en Catálogo de empleados </t>
+  </si>
+  <si>
+    <t>Se ingresa a la pantalla de Detalle de Tipo Dependencias y al intentar guardar un registro se presenta mensaje de error:</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al ingresar al modulo procesos marca error / Catálogos 
+Rutas Arriba de Catálogos 
+Al darle a tras en cada uno de los apartados 
+Arroja un error y te saca del sistema 
+No están correctamente vinculados  
+Se visualiza Usuarios en el apartado de configuraciones </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-518  / https://pabmi.atlassian.net/browse/PABMI-520</t>
+  </si>
+  <si>
+    <t>Pantalla Principal Niveles de reporte se visualizan errores ortograficos, falta de tooltips descriptivos, palabras en inglés</t>
+  </si>
+  <si>
+    <t>Al intentar agregar un registro No se puedo guardar
+Quedaran pendientes editar, eliminar de pruebas el apartado de acciones
+Presenta errores de ortografía en la palabra descripción</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-521</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-522</t>
+  </si>
+  <si>
+    <t>Agregar acentos en Área, Descripción, Menú (Tooltip)
+Presenta palabras en ingles en los filtros de columnas y filtros al igual que los tooltips
+Definir el uso de mayúsculas y minúsculas al iniciar el enunciado o palabra Ejemplo Acciones</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-523</t>
+  </si>
+  <si>
+    <t>La columna acciones no debería aparecer en la descarga del documento.
+Cómo debería nombrarse el nombre del documento descargado?
+Revisar la abreviatura de la (Clave)</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-524</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancela el registro </t>
+  </si>
+  <si>
+    <t>Cancela el registro</t>
+  </si>
+  <si>
+    <t>Catálogos
+Empleados 
+Filtros 
+ Descripción de los filtros en Inglés 
+Columnas no ejecuta los swich Activado y desactivado 
+Como no se pudo agregar un  registro no se ejecuto el correcto filtrado ya que no hay  opciones a escoger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrado Correcto </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-526</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al querer regresar al menú inicio no ejecuta la acción </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-520</t>
+  </si>
+  <si>
+    <t>Al intentar agregar un registro No se puedo guardar
+Quedaran pendientes editar, eliminar de pruebas el apartado de acciones
+Presenta errores de ortografía en la palabra descripción
+Agregar acento (Área)
+Al dejar los campos vacíos el mensaje de alerta lo arroja atrás de la pantalla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catálogos 
+Área 
+Exportar
+La columna acciones no debería aparecer en la descarga del documento. 
+Cómo debería nombrarse el nombre del documento descargado? 
+Revisar la abreviatura de la (Clave) </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-527</t>
+  </si>
+  <si>
+    <t>Pantalla Principal Area se visualizan errores ortograficos, falta de tooltips descriptivos, palabras en inglés</t>
+  </si>
+  <si>
+    <t>Error al querer agregar un registro botón guardar no ejecuta la acción
+Agregar acento en la palabra Secretarías y Descripción
+Al dejar los campos vacíos el mensaje de alerta lo arroja atrás de la pantalla</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-528</t>
   </si>
 </sst>
 </file>
@@ -11509,7 +11632,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11587,7 +11710,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11696,7 +11819,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:F50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -12176,8 +12299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12239,7 +12362,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="26" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="27"/>
@@ -12269,12 +12392,12 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="33"/>
@@ -12289,46 +12412,46 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -12336,22 +12459,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -12364,17 +12487,17 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -12382,102 +12505,157 @@
       <c r="M8" s="17"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J9" s="2"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="165" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="J10" s="2"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
       <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J11" s="2"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="1"/>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="1">
+        <v>45114</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="N12" s="1"/>
     </row>
@@ -12486,40 +12664,62 @@
         <v>7</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="M13" s="6"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="36"/>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="1"/>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="1">
+        <v>45114</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
@@ -12528,7 +12728,10 @@
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -12543,7 +12746,10 @@
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -12558,77 +12764,135 @@
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
       <c r="F17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="M17" s="6"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="36"/>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J18" s="2"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N18" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="36"/>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="J19" s="2"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A20" s="37"/>
       <c r="B20" s="36"/>
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J20" s="2"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="1"/>
+      <c r="K20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" s="1">
+        <v>45114</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>8</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="F21" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -12636,20 +12900,37 @@
       <c r="M21" s="6"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="37"/>
       <c r="B22" s="36"/>
       <c r="C22" s="38"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
       <c r="F22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J22" s="2"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="1"/>
+      <c r="K22" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" s="1">
+        <v>45114</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
@@ -12658,7 +12939,10 @@
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
       <c r="F23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -12673,7 +12957,10 @@
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
       <c r="F24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="2"/>
@@ -12687,7 +12974,10 @@
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
       <c r="F25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -12702,7 +12992,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
       <c r="F26" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -12710,48 +13000,65 @@
       <c r="M26" s="6"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A27" s="37"/>
       <c r="B27" s="36"/>
       <c r="C27" s="38"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
       <c r="F27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J27" s="2"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="1"/>
+      <c r="K27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N27" s="1">
+        <v>45114</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
         <v>9</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" t="s">
         <v>23</v>
       </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J28" s="2"/>
       <c r="M28" s="6"/>
@@ -12764,26 +13071,26 @@
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
       <c r="F29" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N29" s="1">
         <v>45112</v>
@@ -12796,26 +13103,26 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
       <c r="F30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N30" s="1">
         <v>45112</v>
@@ -12828,26 +13135,26 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N31" s="1">
         <v>45112</v>
@@ -12860,10 +13167,10 @@
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -12878,13 +13185,13 @@
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
       <c r="F33" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="2"/>
@@ -12898,68 +13205,68 @@
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
       <c r="F34" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N34" s="1">
         <v>45113</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A35" s="37">
         <v>10</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N35" s="1">
         <v>45113</v>
@@ -12972,26 +13279,26 @@
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
       <c r="F36" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="N36" s="1">
         <v>45113</v>
@@ -13004,10 +13311,10 @@
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="2"/>
@@ -13021,10 +13328,10 @@
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
       <c r="F38" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -13039,10 +13346,10 @@
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
       <c r="F39" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -13057,16 +13364,16 @@
       <c r="D40" s="39"/>
       <c r="E40" s="39"/>
       <c r="F40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J40" s="2"/>
       <c r="M40" s="6"/>
@@ -13079,70 +13386,97 @@
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
       <c r="F41" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N41" s="1">
         <v>45113</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42" s="37">
         <v>11</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="F42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J42" s="2"/>
+      <c r="K42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42" t="s">
+        <v>75</v>
+      </c>
       <c r="M42" s="6"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A43" s="37"/>
       <c r="B43" s="36"/>
       <c r="C43" s="40"/>
       <c r="D43" s="39"/>
       <c r="E43" s="39"/>
       <c r="F43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J43" s="2"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="1"/>
+      <c r="K43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N43" s="1">
+        <v>45114</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
@@ -13151,7 +13485,10 @@
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
       <c r="F44" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>73</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -13165,7 +13502,10 @@
       <c r="D45" s="39"/>
       <c r="E45" s="39"/>
       <c r="F45" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -13180,10 +13520,17 @@
       <c r="D46" s="39"/>
       <c r="E46" s="39"/>
       <c r="F46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="N46" s="1"/>
     </row>
@@ -13194,64 +13541,110 @@
       <c r="D47" s="39"/>
       <c r="E47" s="39"/>
       <c r="F47" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="2"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="37"/>
       <c r="B48" s="36"/>
       <c r="C48" s="40"/>
       <c r="D48" s="39"/>
       <c r="E48" s="39"/>
       <c r="F48" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J48" s="2"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
+        <v>95</v>
+      </c>
+      <c r="L48" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N48" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="37">
         <v>12</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="F49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A50" s="37"/>
       <c r="B50" s="36"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
       <c r="F50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J50" s="2"/>
-      <c r="N50" s="1"/>
+      <c r="K50" t="s">
+        <v>95</v>
+      </c>
+      <c r="L50" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N50" s="1">
+        <v>45114</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="37"/>
@@ -13260,7 +13653,10 @@
       <c r="D51" s="39"/>
       <c r="E51" s="39"/>
       <c r="F51" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="2"/>
@@ -13273,7 +13669,10 @@
       <c r="D52" s="39"/>
       <c r="E52" s="39"/>
       <c r="F52" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="2"/>
@@ -13286,73 +13685,154 @@
       <c r="D53" s="39"/>
       <c r="E53" s="39"/>
       <c r="F53" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I53" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J53" s="2"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="165" x14ac:dyDescent="0.3">
       <c r="A54" s="37"/>
       <c r="B54" s="36"/>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39"/>
       <c r="F54" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="J54" s="2"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K54" t="s">
+        <v>95</v>
+      </c>
+      <c r="L54" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" t="s">
+        <v>135</v>
+      </c>
+      <c r="N54" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A55" s="37"/>
       <c r="B55" s="36"/>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
       <c r="E55" s="39"/>
       <c r="F55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="G55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J55" s="2"/>
-      <c r="N55" s="1"/>
+      <c r="K55" t="s">
+        <v>95</v>
+      </c>
+      <c r="L55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N55" s="1">
+        <v>45114</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="37">
         <v>13</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="F56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" s="3"/>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s">
+        <v>150</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J56" s="2"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K56" t="s">
+        <v>95</v>
+      </c>
+      <c r="L56" t="s">
+        <v>75</v>
+      </c>
+      <c r="N56" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A57" s="37"/>
       <c r="B57" s="36"/>
       <c r="C57" s="38"/>
       <c r="D57" s="39"/>
       <c r="E57" s="39"/>
       <c r="F57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J57" s="2"/>
-      <c r="N57" s="1"/>
+      <c r="K57" t="s">
+        <v>95</v>
+      </c>
+      <c r="L57" t="s">
+        <v>75</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="N57" s="1">
+        <v>45114</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="37"/>
@@ -13361,7 +13841,7 @@
       <c r="D58" s="39"/>
       <c r="E58" s="39"/>
       <c r="F58" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="2"/>
@@ -13374,7 +13854,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
       <c r="F59" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="2"/>
@@ -13387,7 +13867,7 @@
       <c r="D60" s="39"/>
       <c r="E60" s="39"/>
       <c r="F60" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="2"/>
@@ -13400,7 +13880,7 @@
       <c r="D61" s="39"/>
       <c r="E61" s="39"/>
       <c r="F61" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="2"/>
@@ -13413,7 +13893,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="39"/>
       <c r="F62" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="2"/>
@@ -13424,19 +13904,19 @@
         <v>14</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="F63" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="2"/>
@@ -13448,7 +13928,7 @@
       <c r="D64" s="39"/>
       <c r="E64" s="39"/>
       <c r="F64" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="2"/>
@@ -13460,7 +13940,7 @@
       <c r="D65" s="39"/>
       <c r="E65" s="39"/>
       <c r="F65" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="2"/>
@@ -13472,7 +13952,7 @@
       <c r="D66" s="39"/>
       <c r="E66" s="39"/>
       <c r="F66" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="2"/>
@@ -13484,7 +13964,7 @@
       <c r="D67" s="39"/>
       <c r="E67" s="39"/>
       <c r="F67" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="2"/>
@@ -13496,7 +13976,7 @@
       <c r="D68" s="39"/>
       <c r="E68" s="39"/>
       <c r="F68" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="2"/>
@@ -13508,7 +13988,7 @@
       <c r="D69" s="39"/>
       <c r="E69" s="39"/>
       <c r="F69" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -13520,19 +14000,19 @@
         <v>15</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="F70" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -13546,7 +14026,7 @@
       <c r="D71" s="39"/>
       <c r="E71" s="39"/>
       <c r="F71" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -13560,7 +14040,7 @@
       <c r="D72" s="39"/>
       <c r="E72" s="39"/>
       <c r="F72" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -13574,7 +14054,7 @@
       <c r="D73" s="39"/>
       <c r="E73" s="39"/>
       <c r="F73" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -13588,7 +14068,7 @@
       <c r="D74" s="39"/>
       <c r="E74" s="39"/>
       <c r="F74" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -13602,7 +14082,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
       <c r="F75" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -13616,7 +14096,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="39"/>
       <c r="F76" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -13628,19 +14108,19 @@
         <v>16</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="F77" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -13654,7 +14134,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="39"/>
       <c r="F78" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -13668,7 +14148,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
       <c r="F79" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -13682,7 +14162,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
       <c r="F80" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -13696,7 +14176,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
       <c r="F81" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -13710,7 +14190,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
       <c r="F82" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -13724,7 +14204,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
       <c r="F83" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -13736,19 +14216,19 @@
         <v>17</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D84" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="39" t="s">
+      <c r="F84" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -13762,7 +14242,7 @@
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
       <c r="F85" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -13776,7 +14256,7 @@
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
       <c r="F86" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -13790,7 +14270,7 @@
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
       <c r="F87" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -13804,7 +14284,7 @@
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
       <c r="F88" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -13818,7 +14298,7 @@
       <c r="D89" s="39"/>
       <c r="E89" s="39"/>
       <c r="F89" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -13832,7 +14312,7 @@
       <c r="D90" s="39"/>
       <c r="E90" s="39"/>
       <c r="F90" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -13844,19 +14324,19 @@
         <v>18</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D91" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="39" t="s">
+      <c r="F91" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -13870,7 +14350,7 @@
       <c r="D92" s="39"/>
       <c r="E92" s="39"/>
       <c r="F92" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -13884,7 +14364,7 @@
       <c r="D93" s="39"/>
       <c r="E93" s="39"/>
       <c r="F93" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -13898,7 +14378,7 @@
       <c r="D94" s="39"/>
       <c r="E94" s="39"/>
       <c r="F94" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -13912,7 +14392,7 @@
       <c r="D95" s="39"/>
       <c r="E95" s="39"/>
       <c r="F95" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -13926,7 +14406,7 @@
       <c r="D96" s="39"/>
       <c r="E96" s="39"/>
       <c r="F96" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -13940,7 +14420,7 @@
       <c r="D97" s="39"/>
       <c r="E97" s="39"/>
       <c r="F97" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -13952,19 +14432,19 @@
         <v>19</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D98" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="39" t="s">
+      <c r="F98" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -13978,7 +14458,7 @@
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
       <c r="F99" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -13992,7 +14472,7 @@
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
       <c r="F100" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -14006,7 +14486,7 @@
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
       <c r="F101" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -14020,7 +14500,7 @@
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
       <c r="F102" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -14034,7 +14514,7 @@
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
       <c r="F103" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -14048,7 +14528,7 @@
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
       <c r="F104" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -14060,19 +14540,19 @@
         <v>20</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D105" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E105" s="39" t="s">
+      <c r="F105" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -14086,7 +14566,7 @@
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
       <c r="F106" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -14100,7 +14580,7 @@
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
       <c r="F107" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -14114,7 +14594,7 @@
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
       <c r="F108" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -14128,7 +14608,7 @@
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
       <c r="F109" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -14142,7 +14622,7 @@
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
       <c r="F110" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -14156,7 +14636,7 @@
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
       <c r="F111" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -14168,19 +14648,19 @@
         <v>21</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D112" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="39" t="s">
+      <c r="F112" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -14194,7 +14674,7 @@
       <c r="D113" s="39"/>
       <c r="E113" s="39"/>
       <c r="F113" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -14208,7 +14688,7 @@
       <c r="D114" s="39"/>
       <c r="E114" s="39"/>
       <c r="F114" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -14222,7 +14702,7 @@
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
       <c r="F115" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -14236,7 +14716,7 @@
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
       <c r="F116" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -14250,7 +14730,7 @@
       <c r="D117" s="39"/>
       <c r="E117" s="39"/>
       <c r="F117" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -14264,7 +14744,7 @@
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
       <c r="F118" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -14276,19 +14756,19 @@
         <v>22</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D119" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="39" t="s">
+      <c r="F119" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -14302,7 +14782,7 @@
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
       <c r="F120" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -14316,7 +14796,7 @@
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
       <c r="F121" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -14330,7 +14810,7 @@
       <c r="D122" s="39"/>
       <c r="E122" s="39"/>
       <c r="F122" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -14344,7 +14824,7 @@
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
       <c r="F123" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -14358,7 +14838,7 @@
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
       <c r="F124" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -14372,7 +14852,7 @@
       <c r="D125" s="39"/>
       <c r="E125" s="39"/>
       <c r="F125" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -14384,19 +14864,19 @@
         <v>23</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D126" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E126" s="39" t="s">
+      <c r="F126" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -14410,7 +14890,7 @@
       <c r="D127" s="39"/>
       <c r="E127" s="39"/>
       <c r="F127" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -14424,7 +14904,7 @@
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
       <c r="F128" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -14438,7 +14918,7 @@
       <c r="D129" s="39"/>
       <c r="E129" s="39"/>
       <c r="F129" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -14452,7 +14932,7 @@
       <c r="D130" s="39"/>
       <c r="E130" s="39"/>
       <c r="F130" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -14466,7 +14946,7 @@
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
       <c r="F131" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -14480,7 +14960,7 @@
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
       <c r="F132" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -14492,19 +14972,19 @@
         <v>24</v>
       </c>
       <c r="B133" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D133" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E133" s="39" t="s">
+      <c r="F133" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -14518,7 +14998,7 @@
       <c r="D134" s="39"/>
       <c r="E134" s="39"/>
       <c r="F134" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -14532,7 +15012,7 @@
       <c r="D135" s="39"/>
       <c r="E135" s="39"/>
       <c r="F135" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -14546,7 +15026,7 @@
       <c r="D136" s="39"/>
       <c r="E136" s="39"/>
       <c r="F136" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -14560,7 +15040,7 @@
       <c r="D137" s="39"/>
       <c r="E137" s="39"/>
       <c r="F137" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -14574,7 +15054,7 @@
       <c r="D138" s="39"/>
       <c r="E138" s="39"/>
       <c r="F138" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -14587,7 +15067,7 @@
       <c r="D139" s="39"/>
       <c r="E139" s="39"/>
       <c r="F139" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -14598,19 +15078,19 @@
         <v>25</v>
       </c>
       <c r="B140" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D140" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E140" s="39" t="s">
+      <c r="F140" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -14624,7 +15104,7 @@
       <c r="D141" s="39"/>
       <c r="E141" s="39"/>
       <c r="F141" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -14638,7 +15118,7 @@
       <c r="D142" s="39"/>
       <c r="E142" s="39"/>
       <c r="F142" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
@@ -14648,7 +15128,7 @@
       <c r="D143" s="39"/>
       <c r="E143" s="39"/>
       <c r="F143" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -14658,7 +15138,7 @@
       <c r="D144" s="39"/>
       <c r="E144" s="39"/>
       <c r="F144" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -14668,7 +15148,7 @@
       <c r="D145" s="39"/>
       <c r="E145" s="39"/>
       <c r="F145" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -14678,7 +15158,7 @@
       <c r="D146" s="39"/>
       <c r="E146" s="39"/>
       <c r="F146" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -14686,19 +15166,19 @@
         <v>26</v>
       </c>
       <c r="B147" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D147" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E147" s="39" t="s">
+      <c r="F147" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -14708,7 +15188,7 @@
       <c r="D148" s="39"/>
       <c r="E148" s="39"/>
       <c r="F148" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -14718,7 +15198,7 @@
       <c r="D149" s="39"/>
       <c r="E149" s="39"/>
       <c r="F149" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -14728,7 +15208,7 @@
       <c r="D150" s="39"/>
       <c r="E150" s="39"/>
       <c r="F150" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -14738,7 +15218,7 @@
       <c r="D151" s="39"/>
       <c r="E151" s="39"/>
       <c r="F151" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -14748,7 +15228,7 @@
       <c r="D152" s="39"/>
       <c r="E152" s="39"/>
       <c r="F152" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -14758,7 +15238,7 @@
       <c r="D153" s="39"/>
       <c r="E153" s="39"/>
       <c r="F153" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -14766,19 +15246,19 @@
         <v>27</v>
       </c>
       <c r="B154" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D154" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E154" s="39" t="s">
+      <c r="F154" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -14788,7 +15268,7 @@
       <c r="D155" s="39"/>
       <c r="E155" s="39"/>
       <c r="F155" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -14798,7 +15278,7 @@
       <c r="D156" s="39"/>
       <c r="E156" s="39"/>
       <c r="F156" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -14808,7 +15288,7 @@
       <c r="D157" s="39"/>
       <c r="E157" s="39"/>
       <c r="F157" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -14818,7 +15298,7 @@
       <c r="D158" s="39"/>
       <c r="E158" s="39"/>
       <c r="F158" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -14828,7 +15308,7 @@
       <c r="D159" s="39"/>
       <c r="E159" s="39"/>
       <c r="F159" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -14838,7 +15318,7 @@
       <c r="D160" s="39"/>
       <c r="E160" s="39"/>
       <c r="F160" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -14846,19 +15326,19 @@
         <v>28</v>
       </c>
       <c r="B161" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D161" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E161" s="39" t="s">
+      <c r="F161" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -14868,7 +15348,7 @@
       <c r="D162" s="39"/>
       <c r="E162" s="39"/>
       <c r="F162" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -14878,7 +15358,7 @@
       <c r="D163" s="39"/>
       <c r="E163" s="39"/>
       <c r="F163" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -14888,7 +15368,7 @@
       <c r="D164" s="39"/>
       <c r="E164" s="39"/>
       <c r="F164" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -14898,7 +15378,7 @@
       <c r="D165" s="39"/>
       <c r="E165" s="39"/>
       <c r="F165" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -14908,7 +15388,7 @@
       <c r="D166" s="39"/>
       <c r="E166" s="39"/>
       <c r="F166" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -14918,7 +15398,7 @@
       <c r="D167" s="39"/>
       <c r="E167" s="39"/>
       <c r="F167" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -14926,19 +15406,19 @@
         <v>29</v>
       </c>
       <c r="B168" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D168" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E168" s="39" t="s">
+      <c r="F168" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -14948,7 +15428,7 @@
       <c r="D169" s="39"/>
       <c r="E169" s="39"/>
       <c r="F169" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -14958,7 +15438,7 @@
       <c r="D170" s="39"/>
       <c r="E170" s="39"/>
       <c r="F170" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -14968,7 +15448,7 @@
       <c r="D171" s="39"/>
       <c r="E171" s="39"/>
       <c r="F171" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -14978,7 +15458,7 @@
       <c r="D172" s="39"/>
       <c r="E172" s="39"/>
       <c r="F172" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -14988,7 +15468,7 @@
       <c r="D173" s="39"/>
       <c r="E173" s="39"/>
       <c r="F173" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -14998,7 +15478,7 @@
       <c r="D174" s="39"/>
       <c r="E174" s="39"/>
       <c r="F174" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -15006,19 +15486,19 @@
         <v>30</v>
       </c>
       <c r="B175" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D175" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E175" s="39" t="s">
+      <c r="F175" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -15028,7 +15508,7 @@
       <c r="D176" s="39"/>
       <c r="E176" s="39"/>
       <c r="F176" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -15038,7 +15518,7 @@
       <c r="D177" s="39"/>
       <c r="E177" s="39"/>
       <c r="F177" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -15048,7 +15528,7 @@
       <c r="D178" s="39"/>
       <c r="E178" s="39"/>
       <c r="F178" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -15058,7 +15538,7 @@
       <c r="D179" s="39"/>
       <c r="E179" s="39"/>
       <c r="F179" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -15068,7 +15548,7 @@
       <c r="D180" s="39"/>
       <c r="E180" s="39"/>
       <c r="F180" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -15078,7 +15558,7 @@
       <c r="D181" s="39"/>
       <c r="E181" s="39"/>
       <c r="F181" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -15086,19 +15566,19 @@
         <v>31</v>
       </c>
       <c r="B182" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D182" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E182" s="39" t="s">
+      <c r="F182" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -15108,7 +15588,7 @@
       <c r="D183" s="39"/>
       <c r="E183" s="39"/>
       <c r="F183" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -15118,7 +15598,7 @@
       <c r="D184" s="39"/>
       <c r="E184" s="39"/>
       <c r="F184" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -15128,7 +15608,7 @@
       <c r="D185" s="39"/>
       <c r="E185" s="39"/>
       <c r="F185" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -15138,7 +15618,7 @@
       <c r="D186" s="39"/>
       <c r="E186" s="39"/>
       <c r="F186" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -15148,7 +15628,7 @@
       <c r="D187" s="39"/>
       <c r="E187" s="39"/>
       <c r="F187" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -15158,7 +15638,7 @@
       <c r="D188" s="39"/>
       <c r="E188" s="39"/>
       <c r="F188" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -15166,19 +15646,19 @@
         <v>32</v>
       </c>
       <c r="B189" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D189" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E189" s="39" t="s">
+      <c r="F189" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -15188,7 +15668,7 @@
       <c r="D190" s="39"/>
       <c r="E190" s="39"/>
       <c r="F190" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -15198,7 +15678,7 @@
       <c r="D191" s="39"/>
       <c r="E191" s="39"/>
       <c r="F191" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -15208,7 +15688,7 @@
       <c r="D192" s="39"/>
       <c r="E192" s="39"/>
       <c r="F192" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -15218,7 +15698,7 @@
       <c r="D193" s="39"/>
       <c r="E193" s="39"/>
       <c r="F193" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -15228,7 +15708,7 @@
       <c r="D194" s="39"/>
       <c r="E194" s="39"/>
       <c r="F194" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -15238,7 +15718,7 @@
       <c r="D195" s="39"/>
       <c r="E195" s="39"/>
       <c r="F195" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -15246,19 +15726,19 @@
         <v>33</v>
       </c>
       <c r="B196" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C196" s="41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D196" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E196" s="39" t="s">
+      <c r="F196" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -15268,7 +15748,7 @@
       <c r="D197" s="39"/>
       <c r="E197" s="39"/>
       <c r="F197" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -15278,7 +15758,7 @@
       <c r="D198" s="39"/>
       <c r="E198" s="39"/>
       <c r="F198" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -15288,7 +15768,7 @@
       <c r="D199" s="39"/>
       <c r="E199" s="39"/>
       <c r="F199" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -15298,7 +15778,7 @@
       <c r="D200" s="39"/>
       <c r="E200" s="39"/>
       <c r="F200" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -15308,7 +15788,7 @@
       <c r="D201" s="39"/>
       <c r="E201" s="39"/>
       <c r="F201" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -15318,7 +15798,7 @@
       <c r="D202" s="39"/>
       <c r="E202" s="39"/>
       <c r="F202" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -15326,19 +15806,19 @@
         <v>34</v>
       </c>
       <c r="B203" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C203" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D203" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E203" s="39" t="s">
+      <c r="F203" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -15348,7 +15828,7 @@
       <c r="D204" s="39"/>
       <c r="E204" s="39"/>
       <c r="F204" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -15358,7 +15838,7 @@
       <c r="D205" s="39"/>
       <c r="E205" s="39"/>
       <c r="F205" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -15368,7 +15848,7 @@
       <c r="D206" s="39"/>
       <c r="E206" s="39"/>
       <c r="F206" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -15378,7 +15858,7 @@
       <c r="D207" s="39"/>
       <c r="E207" s="39"/>
       <c r="F207" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -15388,7 +15868,7 @@
       <c r="D208" s="39"/>
       <c r="E208" s="39"/>
       <c r="F208" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -15398,7 +15878,7 @@
       <c r="D209" s="39"/>
       <c r="E209" s="39"/>
       <c r="F209" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -15406,19 +15886,19 @@
         <v>35</v>
       </c>
       <c r="B210" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C210" s="41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D210" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E210" s="39" t="s">
+      <c r="F210" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -15428,7 +15908,7 @@
       <c r="D211" s="39"/>
       <c r="E211" s="39"/>
       <c r="F211" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -15438,7 +15918,7 @@
       <c r="D212" s="39"/>
       <c r="E212" s="39"/>
       <c r="F212" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -15448,7 +15928,7 @@
       <c r="D213" s="39"/>
       <c r="E213" s="39"/>
       <c r="F213" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -15458,7 +15938,7 @@
       <c r="D214" s="39"/>
       <c r="E214" s="39"/>
       <c r="F214" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -15468,7 +15948,7 @@
       <c r="D215" s="39"/>
       <c r="E215" s="39"/>
       <c r="F215" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -15478,7 +15958,7 @@
       <c r="D216" s="39"/>
       <c r="E216" s="39"/>
       <c r="F216" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -15486,19 +15966,19 @@
         <v>36</v>
       </c>
       <c r="B217" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C217" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D217" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E217" s="39" t="s">
+      <c r="F217" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -15508,7 +15988,7 @@
       <c r="D218" s="39"/>
       <c r="E218" s="39"/>
       <c r="F218" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -15518,7 +15998,7 @@
       <c r="D219" s="39"/>
       <c r="E219" s="39"/>
       <c r="F219" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -15528,7 +16008,7 @@
       <c r="D220" s="39"/>
       <c r="E220" s="39"/>
       <c r="F220" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -15538,7 +16018,7 @@
       <c r="D221" s="39"/>
       <c r="E221" s="39"/>
       <c r="F221" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -15548,7 +16028,7 @@
       <c r="D222" s="39"/>
       <c r="E222" s="39"/>
       <c r="F222" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -15558,10 +16038,25 @@
       <c r="D223" s="39"/>
       <c r="E223" s="39"/>
       <c r="F223" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N223">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="157">
     <mergeCell ref="A217:A223"/>
     <mergeCell ref="B217:B223"/>
@@ -15727,10 +16222,24 @@
     <hyperlink ref="M30" r:id="rId3"/>
     <hyperlink ref="M31" r:id="rId4"/>
     <hyperlink ref="M34" r:id="rId5"/>
-    <hyperlink ref="M36" r:id="rId6"/>
+    <hyperlink ref="M36" r:id="rId6" display="https://pabmi.atlassian.net/browse/PABMI-518"/>
+    <hyperlink ref="M10" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
+    <hyperlink ref="M19" r:id="rId9"/>
+    <hyperlink ref="M22" r:id="rId10"/>
+    <hyperlink ref="M43" r:id="rId11"/>
+    <hyperlink ref="M41" r:id="rId12"/>
+    <hyperlink ref="M48" r:id="rId13"/>
+    <hyperlink ref="M50" r:id="rId14"/>
+    <hyperlink ref="M20" r:id="rId15"/>
+    <hyperlink ref="M18" r:id="rId16"/>
+    <hyperlink ref="M14" r:id="rId17"/>
+    <hyperlink ref="M11" r:id="rId18"/>
+    <hyperlink ref="M55" r:id="rId19"/>
+    <hyperlink ref="M57" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -15744,13 +16253,13 @@
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G67:G141 G7:G50</xm:sqref>
+          <xm:sqref>G7:G225</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K69:K141 K48:K62</xm:sqref>
+          <xm:sqref>K111:K141</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -15762,7 +16271,7 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K47</xm:sqref>
+          <xm:sqref>K7:K110</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15794,15 +16303,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="8">
         <v>4</v>
@@ -15810,7 +16319,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>
@@ -15818,7 +16327,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="13">
         <v>21</v>
@@ -15826,7 +16335,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="11">
         <v>27</v>
@@ -15834,15 +16343,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="8">
         <v>4</v>
@@ -15850,7 +16359,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="13">
         <v>5</v>
@@ -15858,7 +16367,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="11">
         <v>9</v>
@@ -15866,35 +16375,35 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -15911,7 +16420,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -15950,104 +16459,104 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/PABMI/ENTREGABLES/Matriz de Pruebas PABMI_26062023.xlsx
+++ b/PABMI/ENTREGABLES/Matriz de Pruebas PABMI_26062023.xlsx
@@ -19,9 +19,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$223</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="176">
   <si>
     <t>Matriz de Pruebas Plataforma de Administración de Bienes Muebles e Inmuebles</t>
   </si>
@@ -615,12 +615,100 @@
   <si>
     <t>https://pabmi.atlassian.net/browse/PABMI-528</t>
   </si>
+  <si>
+    <t xml:space="preserve">Palabras sin acentos Descripción, Secretarías / Palabras en ingles </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-530</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Exportar
+La columna acciones no debería aparecer en la descarga del documento. 
+Cómo debería nombrarse el nombre del documento descargado? 
+Revisar la abreviatura de la (Clave) </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-532</t>
+  </si>
+  <si>
+    <t>En pantalla principal no se aprecia el botón agregar
+Quedaran pendientes editar, eliminar de pruebas el apartado de acciones
+No hay filas seleccionadas aparece en ingles
+No aparece el campo de acciones
+No hay tooltips descriptivos en ninguno de los campos</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-533</t>
+  </si>
+  <si>
+    <t>Botón Cancelar esta vinculado con botón agregar</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-534</t>
+  </si>
+  <si>
+    <t>La columna acciones no debería aparecer en la descarga del documento, Cómo debería nombrarse el nombre del documento descargado? Revisar la abreviatura de la (Clave)</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-535</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-536</t>
+  </si>
+  <si>
+    <t>Error al querer guardar el registro, no lo guarda
+Quedaran pendientes editar, eliminar de pruebas el apartado de acciones
+No hay filas seleccionadas aparece en ingles
+No aparece el campo de acciones
+No hay tooltips descriptivos en ninguno de los campos
+Mensaje de error se visualiza en la parte de atrás de la pantalla</t>
+  </si>
+  <si>
+    <t>Palabras sin acentos Descripción,  / Palabras en ingles</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-538</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-537</t>
+  </si>
+  <si>
+    <t>La columna acciones no debería aparecer en la descarga del documento.
+¿Cómo debería nombrarse el nombre del documento descargado?
+Revisar la abreviatura de la (Clave)</t>
+  </si>
+  <si>
+    <t>En Pantalla Principal del modulo Tipo de Clasificación se visualizan errores ortográficos, falta de tooltips descriptivos, palabras en inglés</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-539</t>
+  </si>
+  <si>
+    <t>Error al querer guardar el registro, no lo guarda
+La palabra descripción no tiene acento
+Tipo de Reporte no despliega ninguna opción
+Quedaran pendientes editar, eliminar de pruebas el apartado de acciones
+Mensaje de alerta se refleja tras de la pantalla y no al frente</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-540</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-542</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-541</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +785,12 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -937,7 +1031,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -975,6 +1069,22 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,22 +1136,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -11632,7 +11733,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11710,7 +11811,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11819,7 +11920,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:F50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -12299,8 +12400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12321,94 +12422,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="26" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
@@ -12660,19 +12761,19 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
+      <c r="A13" s="19">
         <v>7</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
@@ -12692,11 +12793,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
@@ -12722,11 +12823,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="3" t="s">
         <v>35</v>
       </c>
@@ -12740,11 +12841,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="3" t="s">
         <v>36</v>
       </c>
@@ -12758,11 +12859,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
@@ -12780,11 +12881,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="3" t="s">
         <v>38</v>
       </c>
@@ -12812,11 +12913,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="99" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="3" t="s">
         <v>39</v>
       </c>
@@ -12844,11 +12945,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="3" t="s">
         <v>40</v>
       </c>
@@ -12876,19 +12977,19 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="37">
+      <c r="A21" s="19">
         <v>8</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -12901,11 +13002,11 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="3" t="s">
         <v>34</v>
       </c>
@@ -12933,11 +13034,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="3" t="s">
         <v>35</v>
       </c>
@@ -12951,11 +13052,11 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="3" t="s">
         <v>36</v>
       </c>
@@ -12968,11 +13069,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="3" t="s">
         <v>37</v>
       </c>
@@ -12986,11 +13087,11 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="3" t="s">
         <v>39</v>
       </c>
@@ -13001,11 +13102,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="3" t="s">
         <v>40</v>
       </c>
@@ -13033,19 +13134,19 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="37">
+      <c r="A28" s="19">
         <v>9</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -13065,11 +13166,11 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="247.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="3" t="s">
         <v>34</v>
       </c>
@@ -13097,11 +13198,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="231" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="3" t="s">
         <v>35</v>
       </c>
@@ -13129,11 +13230,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="3" t="s">
         <v>36</v>
       </c>
@@ -13161,11 +13262,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="3" t="s">
         <v>37</v>
       </c>
@@ -13179,11 +13280,11 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="3" t="s">
         <v>39</v>
       </c>
@@ -13199,11 +13300,11 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="3" t="s">
         <v>40</v>
       </c>
@@ -13231,19 +13332,19 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="37">
+      <c r="A35" s="19">
         <v>10</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -13273,11 +13374,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="3" t="s">
         <v>34</v>
       </c>
@@ -13305,11 +13406,11 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="3" t="s">
         <v>35</v>
       </c>
@@ -13322,11 +13423,11 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="3" t="s">
         <v>36</v>
       </c>
@@ -13340,11 +13441,11 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="3" t="s">
         <v>37</v>
       </c>
@@ -13358,11 +13459,11 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="3" t="s">
         <v>39</v>
       </c>
@@ -13380,11 +13481,11 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="3" t="s">
         <v>40</v>
       </c>
@@ -13412,19 +13513,19 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="37">
+      <c r="A42" s="19">
         <v>11</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -13450,11 +13551,11 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="3" t="s">
         <v>34</v>
       </c>
@@ -13479,11 +13580,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="3" t="s">
         <v>35</v>
       </c>
@@ -13496,11 +13597,11 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="3" t="s">
         <v>36</v>
       </c>
@@ -13514,11 +13615,11 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="3" t="s">
         <v>37</v>
       </c>
@@ -13535,11 +13636,11 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="3" t="s">
         <v>39</v>
       </c>
@@ -13552,11 +13653,11 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="3" t="s">
         <v>40</v>
       </c>
@@ -13584,19 +13685,19 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="37">
+      <c r="A49" s="19">
         <v>12</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -13615,11 +13716,11 @@
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="3" t="s">
         <v>34</v>
       </c>
@@ -13647,11 +13748,11 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="3" t="s">
         <v>35</v>
       </c>
@@ -13663,11 +13764,11 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
       <c r="F52" s="3" t="s">
         <v>36</v>
       </c>
@@ -13679,11 +13780,11 @@
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="3" t="s">
         <v>37</v>
       </c>
@@ -13700,11 +13801,11 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" ht="165" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="3" t="s">
         <v>39</v>
       </c>
@@ -13724,7 +13825,7 @@
       <c r="L54" t="s">
         <v>75</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="6" t="s">
         <v>135</v>
       </c>
       <c r="N54" s="1">
@@ -13732,11 +13833,11 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
       <c r="F55" s="3" t="s">
         <v>40</v>
       </c>
@@ -13764,19 +13865,19 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="37">
+      <c r="A56" s="19">
         <v>13</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D56" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -13803,11 +13904,11 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="3" t="s">
         <v>34</v>
       </c>
@@ -13835,320 +13936,577 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="2"/>
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="2"/>
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="37"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I60" s="3"/>
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J60" s="2"/>
-      <c r="N60" s="1"/>
+      <c r="N60" s="1">
+        <v>45117</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="37"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
       <c r="F61" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I61" s="3"/>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s">
+        <v>153</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="J61" s="2"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="37"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
+      <c r="K61" t="s">
+        <v>95</v>
+      </c>
+      <c r="L61" t="s">
+        <v>75</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N61" s="1">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I62" s="3"/>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J62" s="2"/>
-      <c r="N62" s="1"/>
+      <c r="K62" t="s">
+        <v>95</v>
+      </c>
+      <c r="L62" t="s">
+        <v>75</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="N62" s="1">
+        <v>45117</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="37">
+      <c r="A63" s="19">
         <v>14</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I63" s="3"/>
+      <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s">
+        <v>150</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="37"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
+      <c r="K63" t="s">
+        <v>95</v>
+      </c>
+      <c r="L63" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N63" s="1">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
       <c r="F64" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="I64" s="3"/>
       <c r="J64" s="2"/>
+      <c r="K64" t="s">
+        <v>95</v>
+      </c>
+      <c r="L64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N64" s="1">
+        <v>45117</v>
+      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
       <c r="F65" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="G65" t="s">
+        <v>73</v>
+      </c>
       <c r="I65" s="3"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="37"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="G66" t="s">
+        <v>73</v>
+      </c>
       <c r="I66" s="3"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="37"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
       <c r="F67" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I67" s="3"/>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>160</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J67" s="2"/>
+      <c r="K67" t="s">
+        <v>95</v>
+      </c>
+      <c r="L67" t="s">
+        <v>75</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N67" s="1">
+        <v>45117</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="37"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
       <c r="I68" s="3"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="37"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
       <c r="F69" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
+      <c r="G69" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J69" s="2"/>
-      <c r="N69" s="1"/>
+      <c r="K69" t="s">
+        <v>95</v>
+      </c>
+      <c r="L69" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N69" s="1">
+        <v>45117</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="37">
+      <c r="A70" s="19">
         <v>15</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J70" s="2"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="37"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
+      <c r="K70" t="s">
+        <v>95</v>
+      </c>
+      <c r="L70" t="s">
+        <v>75</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N70" s="1">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="264" x14ac:dyDescent="0.3">
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
       <c r="F71" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="G71" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J71" s="2"/>
-      <c r="N71" s="1"/>
+      <c r="K71" t="s">
+        <v>95</v>
+      </c>
+      <c r="L71" t="s">
+        <v>75</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="N71" s="1">
+        <v>45117</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="37"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
       <c r="F72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="3"/>
+      <c r="G72" t="s">
+        <v>73</v>
+      </c>
+      <c r="H72" s="42"/>
       <c r="I72" s="3"/>
       <c r="J72" s="2"/>
       <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="37"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
       <c r="F73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H73" s="3"/>
+      <c r="G73" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" s="42"/>
       <c r="I73" s="3"/>
       <c r="J73" s="2"/>
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="37"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
       <c r="F74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J74" s="2"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="37"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
+    <row r="75" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="G75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="J75" s="2"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="37"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
+      <c r="K75" t="s">
+        <v>95</v>
+      </c>
+      <c r="L75" t="s">
+        <v>75</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N75" s="1">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
       <c r="F76" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J76" s="2"/>
-      <c r="N76" s="1"/>
+      <c r="K76" t="s">
+        <v>95</v>
+      </c>
+      <c r="L76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N76" s="1">
+        <v>45117</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="37">
+      <c r="A77" s="19">
         <v>16</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D77" s="39" t="s">
+      <c r="D77" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="G77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J77" s="2"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="37"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
+      <c r="M77" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N77" s="1">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J78" s="2"/>
-      <c r="N78" s="1"/>
+      <c r="K78" t="s">
+        <v>95</v>
+      </c>
+      <c r="L78" t="s">
+        <v>75</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="N78" s="1">
+        <v>45117</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="37"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
       <c r="F79" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="G79" t="s">
+        <v>73</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -14156,13 +14514,16 @@
       <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="37"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
       <c r="F80" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="G80" t="s">
+        <v>73</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -14170,77 +14531,123 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="37"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J81" s="2"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="37"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
+    <row r="82" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A82" s="19"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H82" s="3"/>
+      <c r="G82" t="s">
+        <v>72</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="I82" s="3"/>
       <c r="J82" s="2"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="37"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
+      <c r="K82" t="s">
+        <v>95</v>
+      </c>
+      <c r="L82" t="s">
+        <v>75</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="N82" s="1">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
       <c r="F83" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
+      <c r="G83" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J83" s="2"/>
-      <c r="N83" s="1"/>
+      <c r="K83" t="s">
+        <v>95</v>
+      </c>
+      <c r="L83" t="s">
+        <v>75</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N83" s="1">
+        <v>45117</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="37">
+      <c r="A84" s="19">
         <v>17</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D84" s="39" t="s">
+      <c r="D84" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="39" t="s">
+      <c r="E84" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="3"/>
+      <c r="G84" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="I84" s="3"/>
       <c r="J84" s="2"/>
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="37"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="3" t="s">
         <v>34</v>
       </c>
@@ -14250,11 +14657,11 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="37"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="3" t="s">
         <v>35</v>
       </c>
@@ -14264,11 +14671,11 @@
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="37"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="3" t="s">
         <v>36</v>
       </c>
@@ -14278,11 +14685,11 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="37"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
       <c r="F88" s="3" t="s">
         <v>37</v>
       </c>
@@ -14292,11 +14699,11 @@
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="37"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
       <c r="F89" s="3" t="s">
         <v>39</v>
       </c>
@@ -14306,11 +14713,11 @@
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="37"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="3" t="s">
         <v>40</v>
       </c>
@@ -14320,19 +14727,19 @@
       <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="37">
+      <c r="A91" s="19">
         <v>18</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D91" s="39" t="s">
+      <c r="D91" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="39" t="s">
+      <c r="E91" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F91" s="3" t="s">
@@ -14344,11 +14751,11 @@
       <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="37"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
       <c r="F92" s="3" t="s">
         <v>34</v>
       </c>
@@ -14358,11 +14765,11 @@
       <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
       <c r="F93" s="3" t="s">
         <v>35</v>
       </c>
@@ -14372,11 +14779,11 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="37"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="3" t="s">
         <v>36</v>
       </c>
@@ -14386,11 +14793,11 @@
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="37"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="3" t="s">
         <v>37</v>
       </c>
@@ -14400,11 +14807,11 @@
       <c r="N95" s="1"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
       <c r="F96" s="3" t="s">
         <v>39</v>
       </c>
@@ -14414,11 +14821,11 @@
       <c r="N96" s="1"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
       <c r="F97" s="3" t="s">
         <v>40</v>
       </c>
@@ -14428,19 +14835,19 @@
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="37">
+      <c r="A98" s="19">
         <v>19</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D98" s="39" t="s">
+      <c r="D98" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="39" t="s">
+      <c r="E98" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -14452,11 +14859,11 @@
       <c r="N98" s="1"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="37"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
       <c r="F99" s="3" t="s">
         <v>34</v>
       </c>
@@ -14466,11 +14873,11 @@
       <c r="N99" s="1"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="37"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
       <c r="F100" s="3" t="s">
         <v>35</v>
       </c>
@@ -14480,11 +14887,11 @@
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="37"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="3" t="s">
         <v>36</v>
       </c>
@@ -14494,11 +14901,11 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="37"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="3" t="s">
         <v>37</v>
       </c>
@@ -14508,11 +14915,11 @@
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="37"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="3" t="s">
         <v>39</v>
       </c>
@@ -14522,11 +14929,11 @@
       <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="37"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="3" t="s">
         <v>40</v>
       </c>
@@ -14536,19 +14943,19 @@
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="37">
+      <c r="A105" s="19">
         <v>20</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="39" t="s">
+      <c r="D105" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E105" s="39" t="s">
+      <c r="E105" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F105" s="3" t="s">
@@ -14560,11 +14967,11 @@
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="37"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="3" t="s">
         <v>34</v>
       </c>
@@ -14574,11 +14981,11 @@
       <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="37"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="3" t="s">
         <v>35</v>
       </c>
@@ -14588,11 +14995,11 @@
       <c r="N107" s="1"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="37"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="3" t="s">
         <v>36</v>
       </c>
@@ -14602,11 +15009,11 @@
       <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="37"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
       <c r="F109" s="3" t="s">
         <v>37</v>
       </c>
@@ -14616,11 +15023,11 @@
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="37"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
       <c r="F110" s="3" t="s">
         <v>39</v>
       </c>
@@ -14630,11 +15037,11 @@
       <c r="N110" s="1"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="37"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
       <c r="F111" s="3" t="s">
         <v>40</v>
       </c>
@@ -14644,19 +15051,19 @@
       <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="37">
+      <c r="A112" s="19">
         <v>21</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C112" s="41" t="s">
+      <c r="C112" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="39" t="s">
+      <c r="D112" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E112" s="39" t="s">
+      <c r="E112" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F112" s="3" t="s">
@@ -14668,11 +15075,11 @@
       <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="37"/>
-      <c r="B113" s="36"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
       <c r="F113" s="3" t="s">
         <v>34</v>
       </c>
@@ -14682,11 +15089,11 @@
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="37"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
       <c r="F114" s="3" t="s">
         <v>35</v>
       </c>
@@ -14696,11 +15103,11 @@
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="37"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
       <c r="F115" s="3" t="s">
         <v>36</v>
       </c>
@@ -14710,11 +15117,11 @@
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="37"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
       <c r="F116" s="3" t="s">
         <v>37</v>
       </c>
@@ -14724,11 +15131,11 @@
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="37"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
       <c r="F117" s="3" t="s">
         <v>39</v>
       </c>
@@ -14738,11 +15145,11 @@
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="37"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
       <c r="F118" s="3" t="s">
         <v>40</v>
       </c>
@@ -14752,19 +15159,19 @@
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="37">
+      <c r="A119" s="19">
         <v>22</v>
       </c>
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C119" s="41" t="s">
+      <c r="C119" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D119" s="39" t="s">
+      <c r="D119" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E119" s="39" t="s">
+      <c r="E119" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F119" s="3" t="s">
@@ -14776,11 +15183,11 @@
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="37"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
       <c r="F120" s="3" t="s">
         <v>34</v>
       </c>
@@ -14790,11 +15197,11 @@
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="37"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
       <c r="F121" s="3" t="s">
         <v>35</v>
       </c>
@@ -14804,11 +15211,11 @@
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="37"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
       <c r="F122" s="3" t="s">
         <v>36</v>
       </c>
@@ -14818,11 +15225,11 @@
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="37"/>
-      <c r="B123" s="36"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
       <c r="F123" s="3" t="s">
         <v>37</v>
       </c>
@@ -14832,11 +15239,11 @@
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="37"/>
-      <c r="B124" s="36"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
       <c r="F124" s="3" t="s">
         <v>39</v>
       </c>
@@ -14846,11 +15253,11 @@
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="37"/>
-      <c r="B125" s="36"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
       <c r="F125" s="3" t="s">
         <v>40</v>
       </c>
@@ -14860,19 +15267,19 @@
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="37">
+      <c r="A126" s="19">
         <v>23</v>
       </c>
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C126" s="41" t="s">
+      <c r="C126" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D126" s="39" t="s">
+      <c r="D126" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E126" s="39" t="s">
+      <c r="E126" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -14884,11 +15291,11 @@
       <c r="N126" s="1"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="37"/>
-      <c r="B127" s="36"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
       <c r="F127" s="3" t="s">
         <v>34</v>
       </c>
@@ -14898,11 +15305,11 @@
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="37"/>
-      <c r="B128" s="36"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="39"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
       <c r="F128" s="3" t="s">
         <v>35</v>
       </c>
@@ -14912,11 +15319,11 @@
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="37"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="39"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
       <c r="F129" s="3" t="s">
         <v>36</v>
       </c>
@@ -14926,11 +15333,11 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="37"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
       <c r="F130" s="3" t="s">
         <v>37</v>
       </c>
@@ -14940,11 +15347,11 @@
       <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="37"/>
-      <c r="B131" s="36"/>
-      <c r="C131" s="41"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
       <c r="F131" s="3" t="s">
         <v>39</v>
       </c>
@@ -14954,11 +15361,11 @@
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="37"/>
-      <c r="B132" s="36"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
       <c r="F132" s="3" t="s">
         <v>40</v>
       </c>
@@ -14968,19 +15375,19 @@
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="37">
+      <c r="A133" s="19">
         <v>24</v>
       </c>
-      <c r="B133" s="36" t="s">
+      <c r="B133" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C133" s="41" t="s">
+      <c r="C133" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D133" s="39" t="s">
+      <c r="D133" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E133" s="39" t="s">
+      <c r="E133" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -14992,11 +15399,11 @@
       <c r="N133" s="1"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="37"/>
-      <c r="B134" s="36"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
       <c r="F134" s="3" t="s">
         <v>34</v>
       </c>
@@ -15006,11 +15413,11 @@
       <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="37"/>
-      <c r="B135" s="36"/>
-      <c r="C135" s="41"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
       <c r="F135" s="3" t="s">
         <v>35</v>
       </c>
@@ -15020,11 +15427,11 @@
       <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="37"/>
-      <c r="B136" s="36"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
       <c r="F136" s="3" t="s">
         <v>36</v>
       </c>
@@ -15034,11 +15441,11 @@
       <c r="N136" s="1"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="37"/>
-      <c r="B137" s="36"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
       <c r="F137" s="3" t="s">
         <v>37</v>
       </c>
@@ -15048,11 +15455,11 @@
       <c r="N137" s="1"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="37"/>
-      <c r="B138" s="36"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
       <c r="F138" s="3" t="s">
         <v>39</v>
       </c>
@@ -15061,11 +15468,11 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="37"/>
-      <c r="B139" s="36"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
       <c r="F139" s="3" t="s">
         <v>40</v>
       </c>
@@ -15074,19 +15481,19 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="37">
+      <c r="A140" s="19">
         <v>25</v>
       </c>
-      <c r="B140" s="36" t="s">
+      <c r="B140" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C140" s="41" t="s">
+      <c r="C140" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D140" s="39" t="s">
+      <c r="D140" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E140" s="39" t="s">
+      <c r="E140" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F140" s="3" t="s">
@@ -15098,11 +15505,11 @@
       <c r="N140" s="1"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="37"/>
-      <c r="B141" s="36"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="22"/>
       <c r="F141" s="3" t="s">
         <v>34</v>
       </c>
@@ -15112,69 +15519,69 @@
       <c r="N141" s="1"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="37"/>
-      <c r="B142" s="36"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
       <c r="F142" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="37"/>
-      <c r="B143" s="36"/>
-      <c r="C143" s="41"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
       <c r="F143" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="37"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
       <c r="F144" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="37"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="41"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
       <c r="F145" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="37"/>
-      <c r="B146" s="36"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
       <c r="F146" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="37">
+      <c r="A147" s="19">
         <v>26</v>
       </c>
-      <c r="B147" s="36" t="s">
+      <c r="B147" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C147" s="41" t="s">
+      <c r="C147" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D147" s="39" t="s">
+      <c r="D147" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E147" s="39" t="s">
+      <c r="E147" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F147" s="3" t="s">
@@ -15182,79 +15589,79 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="37"/>
-      <c r="B148" s="36"/>
-      <c r="C148" s="41"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
       <c r="F148" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="37"/>
-      <c r="B149" s="36"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
       <c r="F149" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="37"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="41"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
       <c r="F150" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="37"/>
-      <c r="B151" s="36"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="39"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
       <c r="F151" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="37"/>
-      <c r="B152" s="36"/>
-      <c r="C152" s="41"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="39"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
       <c r="F152" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="37"/>
-      <c r="B153" s="36"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
       <c r="F153" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="37">
+      <c r="A154" s="19">
         <v>27</v>
       </c>
-      <c r="B154" s="36" t="s">
+      <c r="B154" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C154" s="41" t="s">
+      <c r="C154" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D154" s="39" t="s">
+      <c r="D154" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="39" t="s">
+      <c r="E154" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F154" s="3" t="s">
@@ -15262,79 +15669,79 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="37"/>
-      <c r="B155" s="36"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
       <c r="F155" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="37"/>
-      <c r="B156" s="36"/>
-      <c r="C156" s="41"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="39"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
       <c r="F156" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="37"/>
-      <c r="B157" s="36"/>
-      <c r="C157" s="41"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="39"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="22"/>
       <c r="F157" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="37"/>
-      <c r="B158" s="36"/>
-      <c r="C158" s="41"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="39"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
       <c r="F158" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="37"/>
-      <c r="B159" s="36"/>
-      <c r="C159" s="41"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
       <c r="F159" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="37"/>
-      <c r="B160" s="36"/>
-      <c r="C160" s="41"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
       <c r="F160" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="37">
+      <c r="A161" s="19">
         <v>28</v>
       </c>
-      <c r="B161" s="36" t="s">
+      <c r="B161" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C161" s="41" t="s">
+      <c r="C161" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D161" s="39" t="s">
+      <c r="D161" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E161" s="39" t="s">
+      <c r="E161" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F161" s="3" t="s">
@@ -15342,79 +15749,79 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="37"/>
-      <c r="B162" s="36"/>
-      <c r="C162" s="41"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="39"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
       <c r="F162" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="37"/>
-      <c r="B163" s="36"/>
-      <c r="C163" s="41"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="39"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
       <c r="F163" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="37"/>
-      <c r="B164" s="36"/>
-      <c r="C164" s="41"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="39"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
       <c r="F164" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="37"/>
-      <c r="B165" s="36"/>
-      <c r="C165" s="41"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
       <c r="F165" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="37"/>
-      <c r="B166" s="36"/>
-      <c r="C166" s="41"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
       <c r="F166" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="37"/>
-      <c r="B167" s="36"/>
-      <c r="C167" s="41"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
       <c r="F167" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="37">
+      <c r="A168" s="19">
         <v>29</v>
       </c>
-      <c r="B168" s="36" t="s">
+      <c r="B168" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C168" s="41" t="s">
+      <c r="C168" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D168" s="39" t="s">
+      <c r="D168" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E168" s="39" t="s">
+      <c r="E168" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F168" s="3" t="s">
@@ -15422,79 +15829,79 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="37"/>
-      <c r="B169" s="36"/>
-      <c r="C169" s="41"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="39"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
       <c r="F169" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="37"/>
-      <c r="B170" s="36"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="39"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
       <c r="F170" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="37"/>
-      <c r="B171" s="36"/>
-      <c r="C171" s="41"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
       <c r="F171" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="37"/>
-      <c r="B172" s="36"/>
-      <c r="C172" s="41"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
       <c r="F172" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="37"/>
-      <c r="B173" s="36"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
       <c r="F173" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="37"/>
-      <c r="B174" s="36"/>
-      <c r="C174" s="41"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="39"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
       <c r="F174" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="37">
+      <c r="A175" s="19">
         <v>30</v>
       </c>
-      <c r="B175" s="36" t="s">
+      <c r="B175" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C175" s="41" t="s">
+      <c r="C175" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D175" s="39" t="s">
+      <c r="D175" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E175" s="39" t="s">
+      <c r="E175" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F175" s="3" t="s">
@@ -15502,79 +15909,79 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="37"/>
-      <c r="B176" s="36"/>
-      <c r="C176" s="41"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="39"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
       <c r="F176" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="37"/>
-      <c r="B177" s="36"/>
-      <c r="C177" s="41"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="39"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
       <c r="F177" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="37"/>
-      <c r="B178" s="36"/>
-      <c r="C178" s="41"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="39"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="22"/>
+      <c r="E178" s="22"/>
       <c r="F178" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="37"/>
-      <c r="B179" s="36"/>
-      <c r="C179" s="41"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="39"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="22"/>
       <c r="F179" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="37"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="41"/>
-      <c r="D180" s="39"/>
-      <c r="E180" s="39"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="21"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
       <c r="F180" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="37"/>
-      <c r="B181" s="36"/>
-      <c r="C181" s="41"/>
-      <c r="D181" s="39"/>
-      <c r="E181" s="39"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
       <c r="F181" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="37">
+      <c r="A182" s="19">
         <v>31</v>
       </c>
-      <c r="B182" s="36" t="s">
+      <c r="B182" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C182" s="41" t="s">
+      <c r="C182" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D182" s="39" t="s">
+      <c r="D182" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E182" s="39" t="s">
+      <c r="E182" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F182" s="3" t="s">
@@ -15582,79 +15989,79 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="37"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="41"/>
-      <c r="D183" s="39"/>
-      <c r="E183" s="39"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="22"/>
       <c r="F183" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="37"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="41"/>
-      <c r="D184" s="39"/>
-      <c r="E184" s="39"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
       <c r="F184" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="37"/>
-      <c r="B185" s="36"/>
-      <c r="C185" s="41"/>
-      <c r="D185" s="39"/>
-      <c r="E185" s="39"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="22"/>
       <c r="F185" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="37"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="41"/>
-      <c r="D186" s="39"/>
-      <c r="E186" s="39"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
       <c r="F186" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="37"/>
-      <c r="B187" s="36"/>
-      <c r="C187" s="41"/>
-      <c r="D187" s="39"/>
-      <c r="E187" s="39"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="22"/>
+      <c r="E187" s="22"/>
       <c r="F187" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="37"/>
-      <c r="B188" s="36"/>
-      <c r="C188" s="41"/>
-      <c r="D188" s="39"/>
-      <c r="E188" s="39"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
       <c r="F188" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="37">
+      <c r="A189" s="19">
         <v>32</v>
       </c>
-      <c r="B189" s="36" t="s">
+      <c r="B189" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C189" s="41" t="s">
+      <c r="C189" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D189" s="39" t="s">
+      <c r="D189" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E189" s="39" t="s">
+      <c r="E189" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F189" s="3" t="s">
@@ -15662,79 +16069,79 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="37"/>
-      <c r="B190" s="36"/>
-      <c r="C190" s="41"/>
-      <c r="D190" s="39"/>
-      <c r="E190" s="39"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="22"/>
       <c r="F190" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="37"/>
-      <c r="B191" s="36"/>
-      <c r="C191" s="41"/>
-      <c r="D191" s="39"/>
-      <c r="E191" s="39"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
       <c r="F191" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="37"/>
-      <c r="B192" s="36"/>
-      <c r="C192" s="41"/>
-      <c r="D192" s="39"/>
-      <c r="E192" s="39"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
       <c r="F192" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="37"/>
-      <c r="B193" s="36"/>
-      <c r="C193" s="41"/>
-      <c r="D193" s="39"/>
-      <c r="E193" s="39"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
       <c r="F193" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="37"/>
-      <c r="B194" s="36"/>
-      <c r="C194" s="41"/>
-      <c r="D194" s="39"/>
-      <c r="E194" s="39"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="22"/>
+      <c r="E194" s="22"/>
       <c r="F194" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="37"/>
-      <c r="B195" s="36"/>
-      <c r="C195" s="41"/>
-      <c r="D195" s="39"/>
-      <c r="E195" s="39"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
       <c r="F195" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="37">
+      <c r="A196" s="19">
         <v>33</v>
       </c>
-      <c r="B196" s="36" t="s">
+      <c r="B196" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C196" s="41" t="s">
+      <c r="C196" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D196" s="39" t="s">
+      <c r="D196" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E196" s="39" t="s">
+      <c r="E196" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F196" s="3" t="s">
@@ -15742,79 +16149,79 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="37"/>
-      <c r="B197" s="36"/>
-      <c r="C197" s="41"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="39"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="22"/>
+      <c r="E197" s="22"/>
       <c r="F197" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="37"/>
-      <c r="B198" s="36"/>
-      <c r="C198" s="41"/>
-      <c r="D198" s="39"/>
-      <c r="E198" s="39"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22"/>
       <c r="F198" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="37"/>
-      <c r="B199" s="36"/>
-      <c r="C199" s="41"/>
-      <c r="D199" s="39"/>
-      <c r="E199" s="39"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="22"/>
+      <c r="E199" s="22"/>
       <c r="F199" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="37"/>
-      <c r="B200" s="36"/>
-      <c r="C200" s="41"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="39"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
       <c r="F200" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="37"/>
-      <c r="B201" s="36"/>
-      <c r="C201" s="41"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="39"/>
+      <c r="A201" s="19"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
       <c r="F201" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="37"/>
-      <c r="B202" s="36"/>
-      <c r="C202" s="41"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="39"/>
+      <c r="A202" s="19"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
       <c r="F202" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="37">
+      <c r="A203" s="19">
         <v>34</v>
       </c>
-      <c r="B203" s="36" t="s">
+      <c r="B203" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C203" s="41" t="s">
+      <c r="C203" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D203" s="39" t="s">
+      <c r="D203" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E203" s="39" t="s">
+      <c r="E203" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F203" s="3" t="s">
@@ -15822,79 +16229,79 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="37"/>
-      <c r="B204" s="36"/>
-      <c r="C204" s="41"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39"/>
+      <c r="A204" s="19"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
       <c r="F204" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="37"/>
-      <c r="B205" s="36"/>
-      <c r="C205" s="41"/>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
+      <c r="A205" s="19"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
       <c r="F205" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="37"/>
-      <c r="B206" s="36"/>
-      <c r="C206" s="41"/>
-      <c r="D206" s="39"/>
-      <c r="E206" s="39"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="22"/>
+      <c r="E206" s="22"/>
       <c r="F206" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="37"/>
-      <c r="B207" s="36"/>
-      <c r="C207" s="41"/>
-      <c r="D207" s="39"/>
-      <c r="E207" s="39"/>
+      <c r="A207" s="19"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
       <c r="F207" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="37"/>
-      <c r="B208" s="36"/>
-      <c r="C208" s="41"/>
-      <c r="D208" s="39"/>
-      <c r="E208" s="39"/>
+      <c r="A208" s="19"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
       <c r="F208" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="37"/>
-      <c r="B209" s="36"/>
-      <c r="C209" s="41"/>
-      <c r="D209" s="39"/>
-      <c r="E209" s="39"/>
+      <c r="A209" s="19"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="21"/>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
       <c r="F209" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="37">
+      <c r="A210" s="19">
         <v>35</v>
       </c>
-      <c r="B210" s="36" t="s">
+      <c r="B210" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C210" s="41" t="s">
+      <c r="C210" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D210" s="39" t="s">
+      <c r="D210" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E210" s="39" t="s">
+      <c r="E210" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F210" s="3" t="s">
@@ -15902,79 +16309,79 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="37"/>
-      <c r="B211" s="36"/>
-      <c r="C211" s="41"/>
-      <c r="D211" s="39"/>
-      <c r="E211" s="39"/>
+      <c r="A211" s="19"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
       <c r="F211" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="37"/>
-      <c r="B212" s="36"/>
-      <c r="C212" s="41"/>
-      <c r="D212" s="39"/>
-      <c r="E212" s="39"/>
+      <c r="A212" s="19"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="22"/>
+      <c r="E212" s="22"/>
       <c r="F212" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="37"/>
-      <c r="B213" s="36"/>
-      <c r="C213" s="41"/>
-      <c r="D213" s="39"/>
-      <c r="E213" s="39"/>
+      <c r="A213" s="19"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="22"/>
       <c r="F213" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="37"/>
-      <c r="B214" s="36"/>
-      <c r="C214" s="41"/>
-      <c r="D214" s="39"/>
-      <c r="E214" s="39"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
       <c r="F214" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="37"/>
-      <c r="B215" s="36"/>
-      <c r="C215" s="41"/>
-      <c r="D215" s="39"/>
-      <c r="E215" s="39"/>
+      <c r="A215" s="19"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="21"/>
+      <c r="D215" s="22"/>
+      <c r="E215" s="22"/>
       <c r="F215" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="37"/>
-      <c r="B216" s="36"/>
-      <c r="C216" s="41"/>
-      <c r="D216" s="39"/>
-      <c r="E216" s="39"/>
+      <c r="A216" s="19"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="21"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
       <c r="F216" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="37">
+      <c r="A217" s="19">
         <v>36</v>
       </c>
-      <c r="B217" s="36" t="s">
+      <c r="B217" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C217" s="41" t="s">
+      <c r="C217" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D217" s="39" t="s">
+      <c r="D217" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E217" s="39" t="s">
+      <c r="E217" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F217" s="3" t="s">
@@ -15982,61 +16389,61 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="37"/>
-      <c r="B218" s="36"/>
-      <c r="C218" s="41"/>
-      <c r="D218" s="39"/>
-      <c r="E218" s="39"/>
+      <c r="A218" s="19"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="22"/>
       <c r="F218" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="37"/>
-      <c r="B219" s="36"/>
-      <c r="C219" s="41"/>
-      <c r="D219" s="39"/>
-      <c r="E219" s="39"/>
+      <c r="A219" s="19"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
       <c r="F219" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="37"/>
-      <c r="B220" s="36"/>
-      <c r="C220" s="41"/>
-      <c r="D220" s="39"/>
-      <c r="E220" s="39"/>
+      <c r="A220" s="19"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="22"/>
       <c r="F220" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="37"/>
-      <c r="B221" s="36"/>
-      <c r="C221" s="41"/>
-      <c r="D221" s="39"/>
-      <c r="E221" s="39"/>
+      <c r="A221" s="19"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="21"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
       <c r="F221" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="37"/>
-      <c r="B222" s="36"/>
-      <c r="C222" s="41"/>
-      <c r="D222" s="39"/>
-      <c r="E222" s="39"/>
+      <c r="A222" s="19"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="22"/>
+      <c r="E222" s="22"/>
       <c r="F222" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="37"/>
-      <c r="B223" s="36"/>
-      <c r="C223" s="41"/>
-      <c r="D223" s="39"/>
-      <c r="E223" s="39"/>
+      <c r="A223" s="19"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="21"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="22"/>
       <c r="F223" s="3" t="s">
         <v>40</v>
       </c>
@@ -16058,26 +16465,123 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="157">
-    <mergeCell ref="A217:A223"/>
-    <mergeCell ref="B217:B223"/>
-    <mergeCell ref="C217:C223"/>
-    <mergeCell ref="D217:D223"/>
-    <mergeCell ref="E217:E223"/>
-    <mergeCell ref="A210:A216"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="D210:D216"/>
-    <mergeCell ref="E210:E216"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="D168:D174"/>
-    <mergeCell ref="E168:E174"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="D175:D181"/>
-    <mergeCell ref="E175:E181"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="D49:D55"/>
+    <mergeCell ref="E49:E55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="E56:E62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="D70:D76"/>
+    <mergeCell ref="E70:E76"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="D77:D83"/>
+    <mergeCell ref="E77:E83"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="D84:D90"/>
+    <mergeCell ref="E84:E90"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="A98:A104"/>
+    <mergeCell ref="B98:B104"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="D98:D104"/>
+    <mergeCell ref="E98:E104"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="D112:D118"/>
+    <mergeCell ref="E112:E118"/>
+    <mergeCell ref="A119:A125"/>
+    <mergeCell ref="B119:B125"/>
+    <mergeCell ref="C119:C125"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="E119:E125"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="B126:B132"/>
+    <mergeCell ref="C126:C132"/>
+    <mergeCell ref="D126:D132"/>
+    <mergeCell ref="E126:E132"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="E133:E139"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="D140:D146"/>
+    <mergeCell ref="E140:E146"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="B147:B153"/>
+    <mergeCell ref="C147:C153"/>
+    <mergeCell ref="D147:D153"/>
+    <mergeCell ref="E147:E153"/>
+    <mergeCell ref="A161:A167"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="C161:C167"/>
+    <mergeCell ref="D161:D167"/>
+    <mergeCell ref="E161:E167"/>
+    <mergeCell ref="A154:A160"/>
+    <mergeCell ref="B154:B160"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="E154:E160"/>
     <mergeCell ref="A203:A209"/>
     <mergeCell ref="B203:B209"/>
     <mergeCell ref="C203:C209"/>
@@ -16098,123 +16602,26 @@
     <mergeCell ref="C196:C202"/>
     <mergeCell ref="D196:D202"/>
     <mergeCell ref="E196:E202"/>
-    <mergeCell ref="A147:A153"/>
-    <mergeCell ref="B147:B153"/>
-    <mergeCell ref="C147:C153"/>
-    <mergeCell ref="D147:D153"/>
-    <mergeCell ref="E147:E153"/>
-    <mergeCell ref="A161:A167"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="C161:C167"/>
-    <mergeCell ref="D161:D167"/>
-    <mergeCell ref="E161:E167"/>
-    <mergeCell ref="A154:A160"/>
-    <mergeCell ref="B154:B160"/>
-    <mergeCell ref="C154:C160"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="E154:E160"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="E133:E139"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="D140:D146"/>
-    <mergeCell ref="E140:E146"/>
-    <mergeCell ref="A119:A125"/>
-    <mergeCell ref="B119:B125"/>
-    <mergeCell ref="C119:C125"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="E119:E125"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="B126:B132"/>
-    <mergeCell ref="C126:C132"/>
-    <mergeCell ref="D126:D132"/>
-    <mergeCell ref="E126:E132"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="B112:B118"/>
-    <mergeCell ref="C112:C118"/>
-    <mergeCell ref="D112:D118"/>
-    <mergeCell ref="E112:E118"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="A98:A104"/>
-    <mergeCell ref="B98:B104"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="D98:D104"/>
-    <mergeCell ref="E98:E104"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="D77:D83"/>
-    <mergeCell ref="E77:E83"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="D84:D90"/>
-    <mergeCell ref="E84:E90"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="D70:D76"/>
-    <mergeCell ref="E70:E76"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="D49:D55"/>
-    <mergeCell ref="E49:E55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="D56:D62"/>
-    <mergeCell ref="E56:E62"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="D168:D174"/>
+    <mergeCell ref="E168:E174"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="E175:E181"/>
+    <mergeCell ref="A217:A223"/>
+    <mergeCell ref="B217:B223"/>
+    <mergeCell ref="C217:C223"/>
+    <mergeCell ref="D217:D223"/>
+    <mergeCell ref="E217:E223"/>
+    <mergeCell ref="A210:A216"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="D210:D216"/>
+    <mergeCell ref="E210:E216"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -16237,9 +16644,25 @@
     <hyperlink ref="M11" r:id="rId18"/>
     <hyperlink ref="M55" r:id="rId19"/>
     <hyperlink ref="M57" r:id="rId20"/>
+    <hyperlink ref="M54" r:id="rId21"/>
+    <hyperlink ref="M61" r:id="rId22"/>
+    <hyperlink ref="M62" r:id="rId23"/>
+    <hyperlink ref="M69" r:id="rId24"/>
+    <hyperlink ref="M67" r:id="rId25"/>
+    <hyperlink ref="M64" r:id="rId26"/>
+    <hyperlink ref="M63" r:id="rId27"/>
+    <hyperlink ref="M35" r:id="rId28"/>
+    <hyperlink ref="M70" r:id="rId29"/>
+    <hyperlink ref="M71" r:id="rId30"/>
+    <hyperlink ref="M75" r:id="rId31"/>
+    <hyperlink ref="M76" r:id="rId32"/>
+    <hyperlink ref="M77" r:id="rId33"/>
+    <hyperlink ref="M78" r:id="rId34"/>
+    <hyperlink ref="M83" r:id="rId35"/>
+    <hyperlink ref="M82" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">

--- a/PABMI/ENTREGABLES/Matriz de Pruebas PABMI_26062023.xlsx
+++ b/PABMI/ENTREGABLES/Matriz de Pruebas PABMI_26062023.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="212">
   <si>
     <t>Matriz de Pruebas Plataforma de Administración de Bienes Muebles e Inmuebles</t>
   </si>
@@ -702,6 +702,148 @@
   </si>
   <si>
     <t>https://pabmi.atlassian.net/browse/PABMI-541</t>
+  </si>
+  <si>
+    <t>En Pantalla Principal del modulo verificación se visualizan errores ortográficos, falta de tooltips descriptivos, palabras en inglés</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-550</t>
+  </si>
+  <si>
+    <t>Fallo al querer guardar el registro, no lo guarda
+La palabra descripción no tiene acento
+Quedaran pendientes editar, eliminar de pruebas el apartado de acciones
+Mensaje de alerta se refleja tras de la pantalla y no al frente
+Mensaje de error se visualiza en la parte de atrás de la pantalla al no competa los campos</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar acentos Descripción, Catálogo Menú (Tooltip)
+Presenta palabras en ingles en los filtros de columnas y filtros al igual que los tooltips
+Definir el uso de mayúsculas y minúsculas al iniciar el enunciado o palabra Ejemplo Acciones
+</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-552</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-553</t>
+  </si>
+  <si>
+    <t>La columna acciones no debería aparecer en la descarga del documento.
+¿Cómo debería nombrarse el nombre del documento descargado?
+Revisar la abreviatura de la (Clave)</t>
+  </si>
+  <si>
+    <t>En Pantalla Principal del modulo verificación se visualizan errores ortográficos, falta de tooltips descriptivos, palabras en inglés
+No se visualiza el apartado de rutas
+El campo de acciones no se visualiza</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-554</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-555</t>
+  </si>
+  <si>
+    <t>Fallo al querer guardar el registro, no lo guarda ya que no se completan los campos, no hay información para selección en Tipo de Dependencia, Secretaría, y Tipo de Dependencias
+Mensaje de alerta se refleja tras de la pantalla y no al frente
+En el apartado de Teléfono (agregar un numero de caracteres de 10 números ) No es necesario agregar un campo numérico</t>
+  </si>
+  <si>
+    <t>Agregar acentos Descripción, Dirección Menú (Tooltip)
+Presenta palabras en ingles en los filtros de columnas y filtros al igual que los tooltips
+Definir el uso de mayúsculas y minúsculas al iniciar el enunciado o palabra Ejemplo Acciones</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-556   Titulos https://pabmi.atlassian.net/browse/PABMI-557</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-558</t>
+  </si>
+  <si>
+    <t>La columna acciones no debería aparecer en la descarga del documento.
+¿Cómo debería nombrarse el nombre del documento descargado?</t>
+  </si>
+  <si>
+    <t>En Pantalla Principal del modulo municipios se visualizan, falta de tooltips descriptivos, palabras en inglés
+No se visualiza titulo del módulo
+El campo de acciones no se visualiza</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-559</t>
+  </si>
+  <si>
+    <t>Fallo al querer guardar el registro, no lo guarda.
+Detalle de perfil no seria mejor detalle de Municipio como en en los anteriores
+Mensaje de alerta se refleja tras de la pantalla y no al frente
+Quedaran pendientes editar, eliminar para pruebas en el apartado de acciones</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-560</t>
+  </si>
+  <si>
+    <t>No Rows en ingles cambia a español / No se han encontrado datos</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La columna acciones no debería aparecer en la descarga del documento. 
+¿Cómo debería nombrarse el nombre del documento descargado? 
+</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-563</t>
+  </si>
+  <si>
+    <t>En Pantalla Principal del modulo Notificaciones se visualizan, falta de tooltips descriptivos, palabras en inglés
+Se visualiza titulo del módulo pero no se aprecia la ruta de salida al menú principal
+El campo de acciones no se visualiza
+Se aprecia demasiado espacio de separación entre campos</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-565</t>
+  </si>
+  <si>
+    <t>Fallo al querer guardar el registro, no lo guarda.
+Titulo de la pantalla agregar registro debería decir Detalle de Notificaciones como los demás módulos
+Mensaje de alerta se refleja tras de la pantalla y no al frente
+Quedaran pendientes editar, eliminar para pruebas en el apartado de acciones</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-566</t>
+  </si>
+  <si>
+    <t>No Rows en ingles cambia a español / No se han encontrado datos
+Descripcion / Descripción</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-567</t>
+  </si>
+  <si>
+    <t>En Pantalla Principal del modulo notificaciones se visualizan, falta de tooltips descriptivos, palabras en inglés
+Se visualiza titulo del módulo pero no se aprecia la ruta de salida al menú principal
+El campo de acciones no se visualiza
+Se aprecia demasiado espacio de separación entre campos</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-568</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-569</t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Rows en ingles cambia a español / No se han encontrado datos
+Descripcion / Descripción </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-571</t>
   </si>
 </sst>
 </file>
@@ -1070,21 +1212,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,13 +1269,22 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -12400,8 +12542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12422,94 +12564,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="32" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
@@ -12761,19 +12903,19 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="40">
         <v>7</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
@@ -12793,11 +12935,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
@@ -12823,11 +12965,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="3" t="s">
         <v>35</v>
       </c>
@@ -12841,11 +12983,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="3" t="s">
         <v>36</v>
       </c>
@@ -12859,11 +13001,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
@@ -12881,11 +13023,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="3" t="s">
         <v>38</v>
       </c>
@@ -12913,11 +13055,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="99" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="3" t="s">
         <v>39</v>
       </c>
@@ -12945,11 +13087,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="3" t="s">
         <v>40</v>
       </c>
@@ -12977,19 +13119,19 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="40">
         <v>8</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -13002,11 +13144,11 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="3" t="s">
         <v>34</v>
       </c>
@@ -13034,11 +13176,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="3" t="s">
         <v>35</v>
       </c>
@@ -13052,11 +13194,11 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="3" t="s">
         <v>36</v>
       </c>
@@ -13069,11 +13211,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="3" t="s">
         <v>37</v>
       </c>
@@ -13087,11 +13229,11 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="3" t="s">
         <v>39</v>
       </c>
@@ -13102,11 +13244,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="3" t="s">
         <v>40</v>
       </c>
@@ -13134,19 +13276,19 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+      <c r="A28" s="40">
         <v>9</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -13166,11 +13308,11 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="247.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="3" t="s">
         <v>34</v>
       </c>
@@ -13198,11 +13340,11 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="231" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="3" t="s">
         <v>35</v>
       </c>
@@ -13230,11 +13372,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
       <c r="F31" s="3" t="s">
         <v>36</v>
       </c>
@@ -13262,11 +13404,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="3" t="s">
         <v>37</v>
       </c>
@@ -13280,11 +13422,11 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
       <c r="F33" s="3" t="s">
         <v>39</v>
       </c>
@@ -13300,11 +13442,11 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="3" t="s">
         <v>40</v>
       </c>
@@ -13332,19 +13474,19 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+      <c r="A35" s="40">
         <v>10</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -13374,11 +13516,11 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
       <c r="F36" s="3" t="s">
         <v>34</v>
       </c>
@@ -13406,11 +13548,11 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="3" t="s">
         <v>35</v>
       </c>
@@ -13423,11 +13565,11 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
       <c r="F38" s="3" t="s">
         <v>36</v>
       </c>
@@ -13441,11 +13583,11 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
       <c r="F39" s="3" t="s">
         <v>37</v>
       </c>
@@ -13459,11 +13601,11 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
       <c r="F40" s="3" t="s">
         <v>39</v>
       </c>
@@ -13481,11 +13623,11 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
       <c r="F41" s="3" t="s">
         <v>40</v>
       </c>
@@ -13513,19 +13655,19 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="19">
+      <c r="A42" s="40">
         <v>11</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -13551,11 +13693,11 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
       <c r="F43" s="3" t="s">
         <v>34</v>
       </c>
@@ -13580,11 +13722,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
       <c r="F44" s="3" t="s">
         <v>35</v>
       </c>
@@ -13597,11 +13739,11 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="3" t="s">
         <v>36</v>
       </c>
@@ -13615,11 +13757,11 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
       <c r="F46" s="3" t="s">
         <v>37</v>
       </c>
@@ -13636,11 +13778,11 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
       <c r="F47" s="3" t="s">
         <v>39</v>
       </c>
@@ -13653,11 +13795,11 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
       <c r="F48" s="3" t="s">
         <v>40</v>
       </c>
@@ -13685,19 +13827,19 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="19">
+      <c r="A49" s="40">
         <v>12</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -13716,11 +13858,11 @@
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
       <c r="F50" s="3" t="s">
         <v>34</v>
       </c>
@@ -13748,11 +13890,11 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
       <c r="F51" s="3" t="s">
         <v>35</v>
       </c>
@@ -13764,11 +13906,11 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
       <c r="F52" s="3" t="s">
         <v>36</v>
       </c>
@@ -13780,11 +13922,11 @@
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
       <c r="F53" s="3" t="s">
         <v>37</v>
       </c>
@@ -13801,11 +13943,11 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" ht="165" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
       <c r="F54" s="3" t="s">
         <v>39</v>
       </c>
@@ -13833,11 +13975,11 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
       <c r="F55" s="3" t="s">
         <v>40</v>
       </c>
@@ -13865,19 +14007,19 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="19">
+      <c r="A56" s="40">
         <v>13</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -13904,11 +14046,11 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
       <c r="F57" s="3" t="s">
         <v>34</v>
       </c>
@@ -13936,11 +14078,11 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
       <c r="F58" s="3" t="s">
         <v>35</v>
       </c>
@@ -13952,11 +14094,11 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
       <c r="F59" s="3" t="s">
         <v>36</v>
       </c>
@@ -13968,11 +14110,11 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
       <c r="F60" s="3" t="s">
         <v>37</v>
       </c>
@@ -13991,11 +14133,11 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
       <c r="F61" s="3" t="s">
         <v>39</v>
       </c>
@@ -14023,11 +14165,11 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
       <c r="F62" s="3" t="s">
         <v>40</v>
       </c>
@@ -14055,19 +14197,19 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="19">
+      <c r="A63" s="40">
         <v>14</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -14097,11 +14239,11 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
       <c r="F64" s="3" t="s">
         <v>34</v>
       </c>
@@ -14127,11 +14269,11 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
       <c r="F65" s="3" t="s">
         <v>35</v>
       </c>
@@ -14142,11 +14284,11 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
       <c r="F66" s="3" t="s">
         <v>36</v>
       </c>
@@ -14157,11 +14299,11 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
       <c r="F67" s="3" t="s">
         <v>37</v>
       </c>
@@ -14189,11 +14331,11 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
       <c r="F68" s="3" t="s">
         <v>39</v>
       </c>
@@ -14204,18 +14346,18 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
       <c r="F69" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G69" t="s">
         <v>72</v>
       </c>
-      <c r="H69" s="42" t="s">
+      <c r="H69" s="19" t="s">
         <v>162</v>
       </c>
       <c r="I69" s="3" t="s">
@@ -14236,19 +14378,19 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="19">
+      <c r="A70" s="40">
         <v>15</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -14257,7 +14399,7 @@
       <c r="G70" t="s">
         <v>72</v>
       </c>
-      <c r="H70" s="42" t="s">
+      <c r="H70" s="19" t="s">
         <v>150</v>
       </c>
       <c r="I70" s="3" t="s">
@@ -14278,18 +14420,18 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="264" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
       <c r="F71" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G71" t="s">
         <v>72</v>
       </c>
-      <c r="H71" s="43" t="s">
+      <c r="H71" s="20" t="s">
         <v>165</v>
       </c>
       <c r="I71" s="3" t="s">
@@ -14310,45 +14452,45 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
       <c r="F72" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G72" t="s">
         <v>73</v>
       </c>
-      <c r="H72" s="42"/>
+      <c r="H72" s="19"/>
       <c r="I72" s="3"/>
       <c r="J72" s="2"/>
       <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
       <c r="F73" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>73</v>
       </c>
-      <c r="H73" s="42"/>
+      <c r="H73" s="19"/>
       <c r="I73" s="3"/>
       <c r="J73" s="2"/>
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
       <c r="F74" s="3" t="s">
         <v>37</v>
       </c>
@@ -14365,11 +14507,11 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
       <c r="F75" s="3" t="s">
         <v>39</v>
       </c>
@@ -14397,11 +14539,11 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
       <c r="F76" s="3" t="s">
         <v>40</v>
       </c>
@@ -14429,19 +14571,19 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="19">
+      <c r="A77" s="40">
         <v>16</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -14450,7 +14592,7 @@
       <c r="G77" t="s">
         <v>72</v>
       </c>
-      <c r="H77" s="44" t="s">
+      <c r="H77" s="21" t="s">
         <v>170</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -14465,11 +14607,11 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
       <c r="F78" s="3" t="s">
         <v>34</v>
       </c>
@@ -14497,11 +14639,11 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
       <c r="F79" s="3" t="s">
         <v>35</v>
       </c>
@@ -14514,11 +14656,11 @@
       <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
       <c r="F80" s="3" t="s">
         <v>36</v>
       </c>
@@ -14531,11 +14673,11 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
       <c r="F81" s="3" t="s">
         <v>37</v>
       </c>
@@ -14552,11 +14694,11 @@
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
       <c r="F82" s="3" t="s">
         <v>39</v>
       </c>
@@ -14582,11 +14724,11 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
       <c r="F83" s="3" t="s">
         <v>40</v>
       </c>
@@ -14613,20 +14755,20 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="19">
+    <row r="84" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
         <v>17</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -14636,34 +14778,68 @@
         <v>72</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I84" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J84" s="2"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="K84" t="s">
+        <v>95</v>
+      </c>
+      <c r="L84" t="s">
+        <v>75</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N84" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+      <c r="A85" s="40"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
       <c r="F85" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J85" s="2"/>
-      <c r="N85" s="1"/>
+      <c r="K85" t="s">
+        <v>95</v>
+      </c>
+      <c r="L85" t="s">
+        <v>75</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="N85" s="1">
+        <v>45119</v>
+      </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
       <c r="F86" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -14671,13 +14847,16 @@
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
       <c r="F87" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="G87" t="s">
+        <v>73</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -14685,93 +14864,175 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
       <c r="F88" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J88" s="2"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
+    <row r="89" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="40"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
       <c r="F89" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
+      <c r="G89" t="s">
+        <v>72</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="J89" s="2"/>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
+      <c r="K89" t="s">
+        <v>95</v>
+      </c>
+      <c r="L89" t="s">
+        <v>75</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="N89" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="40"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
       <c r="F90" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J90" s="2"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="19">
+      <c r="K90" t="s">
+        <v>95</v>
+      </c>
+      <c r="L90" t="s">
+        <v>75</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="N90" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
         <v>18</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J91" s="2"/>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
+      <c r="K91" t="s">
+        <v>95</v>
+      </c>
+      <c r="L91" t="s">
+        <v>75</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="N91" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="40"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
       <c r="F92" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J92" s="2"/>
-      <c r="N92" s="1"/>
+      <c r="K92" t="s">
+        <v>95</v>
+      </c>
+      <c r="L92" t="s">
+        <v>75</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N92" s="1">
+        <v>45119</v>
+      </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
       <c r="F93" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="G93" t="s">
+        <v>73</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -14779,13 +15040,16 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
       <c r="F94" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="G94" t="s">
+        <v>73</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -14793,93 +15057,175 @@
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
       <c r="F95" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
+      <c r="G95" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J95" s="2"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
+    <row r="96" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="A96" s="40"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
       <c r="F96" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="J96" s="2"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
+      <c r="K96" t="s">
+        <v>95</v>
+      </c>
+      <c r="L96" t="s">
+        <v>75</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="N96" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A97" s="40"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
       <c r="F97" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+      <c r="G97" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J97" s="2"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="19">
+      <c r="K97" t="s">
+        <v>95</v>
+      </c>
+      <c r="L97" t="s">
+        <v>75</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N97" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
         <v>19</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="E98" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
+      <c r="G98" t="s">
+        <v>72</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J98" s="2"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
+      <c r="K98" t="s">
+        <v>95</v>
+      </c>
+      <c r="L98" t="s">
+        <v>75</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N98" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="40"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
       <c r="F99" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J99" s="2"/>
-      <c r="N99" s="1"/>
+      <c r="K99" t="s">
+        <v>95</v>
+      </c>
+      <c r="L99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="N99" s="1">
+        <v>45119</v>
+      </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
       <c r="F100" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -14887,13 +15233,16 @@
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
       <c r="F101" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="G101" t="s">
+        <v>73</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -14901,93 +15250,173 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
       <c r="F102" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H102" s="3"/>
+      <c r="G102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="I102" s="3"/>
       <c r="J102" s="2"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
+    <row r="103" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A103" s="40"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
       <c r="F103" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
+      <c r="G103" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="J103" s="2"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="19"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
+      <c r="K103" t="s">
+        <v>95</v>
+      </c>
+      <c r="L103" t="s">
+        <v>75</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N103" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="40"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
       <c r="F104" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J104" s="2"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="19">
+      <c r="K104" t="s">
+        <v>95</v>
+      </c>
+      <c r="L104" t="s">
+        <v>75</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N104" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
         <v>20</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="22" t="s">
+      <c r="D105" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J105" s="2"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="19"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
+      <c r="K105" t="s">
+        <v>95</v>
+      </c>
+      <c r="L105" t="s">
+        <v>75</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N105" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+      <c r="A106" s="40"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
       <c r="F106" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
+      <c r="G106" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J106" s="2"/>
-      <c r="N106" s="1"/>
+      <c r="K106" t="s">
+        <v>95</v>
+      </c>
+      <c r="L106" t="s">
+        <v>75</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N106" s="1">
+        <v>45119</v>
+      </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="19"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
       <c r="F107" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -14995,13 +15424,16 @@
       <c r="N107" s="1"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="19"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
       <c r="F108" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -15009,93 +15441,183 @@
       <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
       <c r="F109" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+      <c r="G109" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J109" s="2"/>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="19"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
+      <c r="K109" t="s">
+        <v>95</v>
+      </c>
+      <c r="L109" t="s">
+        <v>75</v>
+      </c>
+      <c r="N109" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="40"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
       <c r="F110" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
+      <c r="G110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="J110" s="2"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
+      <c r="K110" t="s">
+        <v>95</v>
+      </c>
+      <c r="L110" t="s">
+        <v>75</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="N110" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="40"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
       <c r="F111" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
+      <c r="G111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J111" s="2"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="19">
+      <c r="K111" t="s">
+        <v>95</v>
+      </c>
+      <c r="L111" t="s">
+        <v>75</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N111" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
         <v>21</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E112" s="22" t="s">
+      <c r="E112" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
+      <c r="G112" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="J112" s="2"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
+      <c r="K112" t="s">
+        <v>95</v>
+      </c>
+      <c r="L112" t="s">
+        <v>75</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N112" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+      <c r="A113" s="40"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
       <c r="F113" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
+      <c r="G113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="J113" s="2"/>
-      <c r="N113" s="1"/>
+      <c r="K113" t="s">
+        <v>95</v>
+      </c>
+      <c r="L113" t="s">
+        <v>75</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N113" s="1">
+        <v>45119</v>
+      </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="19"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
+      <c r="A114" s="40"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="42"/>
       <c r="F114" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="G114" t="s">
+        <v>73</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -15103,13 +15625,16 @@
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="19"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42"/>
       <c r="F115" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="G115" t="s">
+        <v>73</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -15117,61 +15642,103 @@
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="19"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="42"/>
       <c r="F116" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
+      <c r="G116" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="J116" s="2"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="19"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
+    </row>
+    <row r="117" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="40"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
       <c r="F117" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
+      <c r="G117" t="s">
+        <v>72</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="J117" s="2"/>
-      <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="19"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
+      <c r="K117" t="s">
+        <v>95</v>
+      </c>
+      <c r="L117" t="s">
+        <v>75</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N117" s="1">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="40"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
       <c r="F118" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
+      <c r="G118" t="s">
+        <v>72</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="J118" s="2"/>
-      <c r="N118" s="1"/>
+      <c r="K118" t="s">
+        <v>95</v>
+      </c>
+      <c r="L118" t="s">
+        <v>75</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="N118" s="1">
+        <v>45119</v>
+      </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="19">
+      <c r="A119" s="40">
         <v>22</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="D119" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E119" s="22" t="s">
+      <c r="E119" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F119" s="3" t="s">
@@ -15183,11 +15750,11 @@
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="19"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="42"/>
+      <c r="E120" s="42"/>
       <c r="F120" s="3" t="s">
         <v>34</v>
       </c>
@@ -15197,11 +15764,11 @@
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="19"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="42"/>
       <c r="F121" s="3" t="s">
         <v>35</v>
       </c>
@@ -15211,11 +15778,11 @@
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="19"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
       <c r="F122" s="3" t="s">
         <v>36</v>
       </c>
@@ -15225,11 +15792,11 @@
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="19"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
+      <c r="A123" s="40"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="42"/>
+      <c r="E123" s="42"/>
       <c r="F123" s="3" t="s">
         <v>37</v>
       </c>
@@ -15239,11 +15806,11 @@
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="19"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
       <c r="F124" s="3" t="s">
         <v>39</v>
       </c>
@@ -15253,11 +15820,11 @@
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
+      <c r="A125" s="40"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="42"/>
+      <c r="E125" s="42"/>
       <c r="F125" s="3" t="s">
         <v>40</v>
       </c>
@@ -15267,19 +15834,19 @@
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="19">
+      <c r="A126" s="40">
         <v>23</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E126" s="22" t="s">
+      <c r="E126" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -15291,11 +15858,11 @@
       <c r="N126" s="1"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="19"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="42"/>
       <c r="F127" s="3" t="s">
         <v>34</v>
       </c>
@@ -15305,11 +15872,11 @@
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="19"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="42"/>
+      <c r="E128" s="42"/>
       <c r="F128" s="3" t="s">
         <v>35</v>
       </c>
@@ -15319,11 +15886,11 @@
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="19"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="42"/>
+      <c r="E129" s="42"/>
       <c r="F129" s="3" t="s">
         <v>36</v>
       </c>
@@ -15333,11 +15900,11 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="19"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="42"/>
       <c r="F130" s="3" t="s">
         <v>37</v>
       </c>
@@ -15347,11 +15914,11 @@
       <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="19"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="42"/>
       <c r="F131" s="3" t="s">
         <v>39</v>
       </c>
@@ -15361,11 +15928,11 @@
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="19"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="42"/>
       <c r="F132" s="3" t="s">
         <v>40</v>
       </c>
@@ -15375,19 +15942,19 @@
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="19">
+      <c r="A133" s="40">
         <v>24</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E133" s="22" t="s">
+      <c r="E133" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -15399,11 +15966,11 @@
       <c r="N133" s="1"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="19"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="42"/>
+      <c r="E134" s="42"/>
       <c r="F134" s="3" t="s">
         <v>34</v>
       </c>
@@ -15413,11 +15980,11 @@
       <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="19"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="42"/>
+      <c r="E135" s="42"/>
       <c r="F135" s="3" t="s">
         <v>35</v>
       </c>
@@ -15427,11 +15994,11 @@
       <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="19"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42"/>
       <c r="F136" s="3" t="s">
         <v>36</v>
       </c>
@@ -15441,11 +16008,11 @@
       <c r="N136" s="1"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="19"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="22"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="42"/>
       <c r="F137" s="3" t="s">
         <v>37</v>
       </c>
@@ -15455,11 +16022,11 @@
       <c r="N137" s="1"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="19"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="22"/>
+      <c r="A138" s="40"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="42"/>
+      <c r="E138" s="42"/>
       <c r="F138" s="3" t="s">
         <v>39</v>
       </c>
@@ -15468,11 +16035,11 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="19"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="42"/>
+      <c r="E139" s="42"/>
       <c r="F139" s="3" t="s">
         <v>40</v>
       </c>
@@ -15481,19 +16048,19 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="19">
+      <c r="A140" s="40">
         <v>25</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D140" s="22" t="s">
+      <c r="D140" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E140" s="22" t="s">
+      <c r="E140" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F140" s="3" t="s">
@@ -15505,11 +16072,11 @@
       <c r="N140" s="1"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="19"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="22"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="42"/>
+      <c r="E141" s="42"/>
       <c r="F141" s="3" t="s">
         <v>34</v>
       </c>
@@ -15519,69 +16086,69 @@
       <c r="N141" s="1"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="19"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="22"/>
+      <c r="A142" s="40"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="42"/>
+      <c r="E142" s="42"/>
       <c r="F142" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="19"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="42"/>
+      <c r="E143" s="42"/>
       <c r="F143" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="19"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
+      <c r="A144" s="40"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="42"/>
+      <c r="E144" s="42"/>
       <c r="F144" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="19"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="42"/>
+      <c r="E145" s="42"/>
       <c r="F145" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="19"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="42"/>
+      <c r="E146" s="42"/>
       <c r="F146" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="19">
+      <c r="A147" s="40">
         <v>26</v>
       </c>
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D147" s="22" t="s">
+      <c r="D147" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E147" s="22" t="s">
+      <c r="E147" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F147" s="3" t="s">
@@ -15589,79 +16156,79 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="19"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
+      <c r="A148" s="40"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="42"/>
       <c r="F148" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="19"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
+      <c r="A149" s="40"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="42"/>
       <c r="F149" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="19"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
+      <c r="A150" s="40"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="42"/>
+      <c r="E150" s="42"/>
       <c r="F150" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="19"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
+      <c r="A151" s="40"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="42"/>
+      <c r="E151" s="42"/>
       <c r="F151" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="19"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
+      <c r="A152" s="40"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="42"/>
       <c r="F152" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="19"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="22"/>
+      <c r="A153" s="40"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="42"/>
       <c r="F153" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="19">
+      <c r="A154" s="40">
         <v>27</v>
       </c>
-      <c r="B154" s="20" t="s">
+      <c r="B154" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="D154" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E154" s="22" t="s">
+      <c r="E154" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F154" s="3" t="s">
@@ -15669,79 +16236,79 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
+      <c r="A155" s="40"/>
+      <c r="B155" s="39"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="42"/>
+      <c r="E155" s="42"/>
       <c r="F155" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="19"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="22"/>
+      <c r="A156" s="40"/>
+      <c r="B156" s="39"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="42"/>
       <c r="F156" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="19"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="22"/>
+      <c r="A157" s="40"/>
+      <c r="B157" s="39"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="42"/>
+      <c r="E157" s="42"/>
       <c r="F157" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="19"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="22"/>
-      <c r="E158" s="22"/>
+      <c r="A158" s="40"/>
+      <c r="B158" s="39"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="42"/>
+      <c r="E158" s="42"/>
       <c r="F158" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="19"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
+      <c r="A159" s="40"/>
+      <c r="B159" s="39"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="42"/>
+      <c r="E159" s="42"/>
       <c r="F159" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="19"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
+      <c r="A160" s="40"/>
+      <c r="B160" s="39"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="42"/>
+      <c r="E160" s="42"/>
       <c r="F160" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="19">
+      <c r="A161" s="40">
         <v>28</v>
       </c>
-      <c r="B161" s="20" t="s">
+      <c r="B161" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C161" s="21" t="s">
+      <c r="C161" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D161" s="22" t="s">
+      <c r="D161" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E161" s="22" t="s">
+      <c r="E161" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F161" s="3" t="s">
@@ -15749,79 +16316,79 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="19"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="21"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="22"/>
+      <c r="A162" s="40"/>
+      <c r="B162" s="39"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="42"/>
+      <c r="E162" s="42"/>
       <c r="F162" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="21"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
+      <c r="A163" s="40"/>
+      <c r="B163" s="39"/>
+      <c r="C163" s="44"/>
+      <c r="D163" s="42"/>
+      <c r="E163" s="42"/>
       <c r="F163" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="19"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="22"/>
+      <c r="A164" s="40"/>
+      <c r="B164" s="39"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="42"/>
+      <c r="E164" s="42"/>
       <c r="F164" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="19"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
+      <c r="A165" s="40"/>
+      <c r="B165" s="39"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="42"/>
       <c r="F165" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="19"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="21"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="22"/>
+      <c r="A166" s="40"/>
+      <c r="B166" s="39"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="42"/>
       <c r="F166" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="19"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="22"/>
-      <c r="E167" s="22"/>
+      <c r="A167" s="40"/>
+      <c r="B167" s="39"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="42"/>
+      <c r="E167" s="42"/>
       <c r="F167" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="19">
+      <c r="A168" s="40">
         <v>29</v>
       </c>
-      <c r="B168" s="20" t="s">
+      <c r="B168" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D168" s="22" t="s">
+      <c r="D168" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E168" s="22" t="s">
+      <c r="E168" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F168" s="3" t="s">
@@ -15829,79 +16396,79 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="22"/>
-      <c r="E169" s="22"/>
+      <c r="A169" s="40"/>
+      <c r="B169" s="39"/>
+      <c r="C169" s="44"/>
+      <c r="D169" s="42"/>
+      <c r="E169" s="42"/>
       <c r="F169" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="19"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="22"/>
-      <c r="E170" s="22"/>
+      <c r="A170" s="40"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="44"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="42"/>
       <c r="F170" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="22"/>
-      <c r="E171" s="22"/>
+      <c r="A171" s="40"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="44"/>
+      <c r="D171" s="42"/>
+      <c r="E171" s="42"/>
       <c r="F171" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="21"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="22"/>
+      <c r="A172" s="40"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="44"/>
+      <c r="D172" s="42"/>
+      <c r="E172" s="42"/>
       <c r="F172" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="21"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="22"/>
+      <c r="A173" s="40"/>
+      <c r="B173" s="39"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="42"/>
       <c r="F173" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="19"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="22"/>
-      <c r="E174" s="22"/>
+      <c r="A174" s="40"/>
+      <c r="B174" s="39"/>
+      <c r="C174" s="44"/>
+      <c r="D174" s="42"/>
+      <c r="E174" s="42"/>
       <c r="F174" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="19">
+      <c r="A175" s="40">
         <v>30</v>
       </c>
-      <c r="B175" s="20" t="s">
+      <c r="B175" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D175" s="22" t="s">
+      <c r="D175" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E175" s="22" t="s">
+      <c r="E175" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F175" s="3" t="s">
@@ -15909,79 +16476,79 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="19"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="21"/>
-      <c r="D176" s="22"/>
-      <c r="E176" s="22"/>
+      <c r="A176" s="40"/>
+      <c r="B176" s="39"/>
+      <c r="C176" s="44"/>
+      <c r="D176" s="42"/>
+      <c r="E176" s="42"/>
       <c r="F176" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="22"/>
+      <c r="A177" s="40"/>
+      <c r="B177" s="39"/>
+      <c r="C177" s="44"/>
+      <c r="D177" s="42"/>
+      <c r="E177" s="42"/>
       <c r="F177" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="19"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="22"/>
-      <c r="E178" s="22"/>
+      <c r="A178" s="40"/>
+      <c r="B178" s="39"/>
+      <c r="C178" s="44"/>
+      <c r="D178" s="42"/>
+      <c r="E178" s="42"/>
       <c r="F178" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="21"/>
-      <c r="D179" s="22"/>
-      <c r="E179" s="22"/>
+      <c r="A179" s="40"/>
+      <c r="B179" s="39"/>
+      <c r="C179" s="44"/>
+      <c r="D179" s="42"/>
+      <c r="E179" s="42"/>
       <c r="F179" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="21"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="22"/>
+      <c r="A180" s="40"/>
+      <c r="B180" s="39"/>
+      <c r="C180" s="44"/>
+      <c r="D180" s="42"/>
+      <c r="E180" s="42"/>
       <c r="F180" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="22"/>
+      <c r="A181" s="40"/>
+      <c r="B181" s="39"/>
+      <c r="C181" s="44"/>
+      <c r="D181" s="42"/>
+      <c r="E181" s="42"/>
       <c r="F181" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="19">
+      <c r="A182" s="40">
         <v>31</v>
       </c>
-      <c r="B182" s="20" t="s">
+      <c r="B182" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D182" s="22" t="s">
+      <c r="D182" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E182" s="22" t="s">
+      <c r="E182" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F182" s="3" t="s">
@@ -15989,79 +16556,79 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="22"/>
-      <c r="E183" s="22"/>
+      <c r="A183" s="40"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="44"/>
+      <c r="D183" s="42"/>
+      <c r="E183" s="42"/>
       <c r="F183" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="22"/>
-      <c r="E184" s="22"/>
+      <c r="A184" s="40"/>
+      <c r="B184" s="39"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="42"/>
+      <c r="E184" s="42"/>
       <c r="F184" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="22"/>
-      <c r="E185" s="22"/>
+      <c r="A185" s="40"/>
+      <c r="B185" s="39"/>
+      <c r="C185" s="44"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="42"/>
       <c r="F185" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="21"/>
-      <c r="D186" s="22"/>
-      <c r="E186" s="22"/>
+      <c r="A186" s="40"/>
+      <c r="B186" s="39"/>
+      <c r="C186" s="44"/>
+      <c r="D186" s="42"/>
+      <c r="E186" s="42"/>
       <c r="F186" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="22"/>
-      <c r="E187" s="22"/>
+      <c r="A187" s="40"/>
+      <c r="B187" s="39"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="42"/>
+      <c r="E187" s="42"/>
       <c r="F187" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="22"/>
-      <c r="E188" s="22"/>
+      <c r="A188" s="40"/>
+      <c r="B188" s="39"/>
+      <c r="C188" s="44"/>
+      <c r="D188" s="42"/>
+      <c r="E188" s="42"/>
       <c r="F188" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="19">
+      <c r="A189" s="40">
         <v>32</v>
       </c>
-      <c r="B189" s="20" t="s">
+      <c r="B189" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C189" s="21" t="s">
+      <c r="C189" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D189" s="22" t="s">
+      <c r="D189" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E189" s="22" t="s">
+      <c r="E189" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F189" s="3" t="s">
@@ -16069,79 +16636,79 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="22"/>
-      <c r="E190" s="22"/>
+      <c r="A190" s="40"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="44"/>
+      <c r="D190" s="42"/>
+      <c r="E190" s="42"/>
       <c r="F190" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="22"/>
-      <c r="E191" s="22"/>
+      <c r="A191" s="40"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="44"/>
+      <c r="D191" s="42"/>
+      <c r="E191" s="42"/>
       <c r="F191" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="22"/>
-      <c r="E192" s="22"/>
+      <c r="A192" s="40"/>
+      <c r="B192" s="39"/>
+      <c r="C192" s="44"/>
+      <c r="D192" s="42"/>
+      <c r="E192" s="42"/>
       <c r="F192" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="22"/>
+      <c r="A193" s="40"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="44"/>
+      <c r="D193" s="42"/>
+      <c r="E193" s="42"/>
       <c r="F193" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="21"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="22"/>
+      <c r="A194" s="40"/>
+      <c r="B194" s="39"/>
+      <c r="C194" s="44"/>
+      <c r="D194" s="42"/>
+      <c r="E194" s="42"/>
       <c r="F194" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="21"/>
-      <c r="D195" s="22"/>
-      <c r="E195" s="22"/>
+      <c r="A195" s="40"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="44"/>
+      <c r="D195" s="42"/>
+      <c r="E195" s="42"/>
       <c r="F195" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="19">
+      <c r="A196" s="40">
         <v>33</v>
       </c>
-      <c r="B196" s="20" t="s">
+      <c r="B196" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C196" s="21" t="s">
+      <c r="C196" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D196" s="22" t="s">
+      <c r="D196" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E196" s="22" t="s">
+      <c r="E196" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F196" s="3" t="s">
@@ -16149,79 +16716,79 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="21"/>
-      <c r="D197" s="22"/>
-      <c r="E197" s="22"/>
+      <c r="A197" s="40"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="44"/>
+      <c r="D197" s="42"/>
+      <c r="E197" s="42"/>
       <c r="F197" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="19"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="22"/>
-      <c r="E198" s="22"/>
+      <c r="A198" s="40"/>
+      <c r="B198" s="39"/>
+      <c r="C198" s="44"/>
+      <c r="D198" s="42"/>
+      <c r="E198" s="42"/>
       <c r="F198" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="21"/>
-      <c r="D199" s="22"/>
-      <c r="E199" s="22"/>
+      <c r="A199" s="40"/>
+      <c r="B199" s="39"/>
+      <c r="C199" s="44"/>
+      <c r="D199" s="42"/>
+      <c r="E199" s="42"/>
       <c r="F199" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="19"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="21"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22"/>
+      <c r="A200" s="40"/>
+      <c r="B200" s="39"/>
+      <c r="C200" s="44"/>
+      <c r="D200" s="42"/>
+      <c r="E200" s="42"/>
       <c r="F200" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="19"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="22"/>
+      <c r="A201" s="40"/>
+      <c r="B201" s="39"/>
+      <c r="C201" s="44"/>
+      <c r="D201" s="42"/>
+      <c r="E201" s="42"/>
       <c r="F201" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="19"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="22"/>
-      <c r="E202" s="22"/>
+      <c r="A202" s="40"/>
+      <c r="B202" s="39"/>
+      <c r="C202" s="44"/>
+      <c r="D202" s="42"/>
+      <c r="E202" s="42"/>
       <c r="F202" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="19">
+      <c r="A203" s="40">
         <v>34</v>
       </c>
-      <c r="B203" s="20" t="s">
+      <c r="B203" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C203" s="21" t="s">
+      <c r="C203" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D203" s="22" t="s">
+      <c r="D203" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E203" s="22" t="s">
+      <c r="E203" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F203" s="3" t="s">
@@ -16229,79 +16796,79 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="19"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="21"/>
-      <c r="D204" s="22"/>
-      <c r="E204" s="22"/>
+      <c r="A204" s="40"/>
+      <c r="B204" s="39"/>
+      <c r="C204" s="44"/>
+      <c r="D204" s="42"/>
+      <c r="E204" s="42"/>
       <c r="F204" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="19"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="22"/>
-      <c r="E205" s="22"/>
+      <c r="A205" s="40"/>
+      <c r="B205" s="39"/>
+      <c r="C205" s="44"/>
+      <c r="D205" s="42"/>
+      <c r="E205" s="42"/>
       <c r="F205" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="19"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="22"/>
-      <c r="E206" s="22"/>
+      <c r="A206" s="40"/>
+      <c r="B206" s="39"/>
+      <c r="C206" s="44"/>
+      <c r="D206" s="42"/>
+      <c r="E206" s="42"/>
       <c r="F206" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="19"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="21"/>
-      <c r="D207" s="22"/>
-      <c r="E207" s="22"/>
+      <c r="A207" s="40"/>
+      <c r="B207" s="39"/>
+      <c r="C207" s="44"/>
+      <c r="D207" s="42"/>
+      <c r="E207" s="42"/>
       <c r="F207" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="19"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="21"/>
-      <c r="D208" s="22"/>
-      <c r="E208" s="22"/>
+      <c r="A208" s="40"/>
+      <c r="B208" s="39"/>
+      <c r="C208" s="44"/>
+      <c r="D208" s="42"/>
+      <c r="E208" s="42"/>
       <c r="F208" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="19"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="21"/>
-      <c r="D209" s="22"/>
-      <c r="E209" s="22"/>
+      <c r="A209" s="40"/>
+      <c r="B209" s="39"/>
+      <c r="C209" s="44"/>
+      <c r="D209" s="42"/>
+      <c r="E209" s="42"/>
       <c r="F209" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="19">
+      <c r="A210" s="40">
         <v>35</v>
       </c>
-      <c r="B210" s="20" t="s">
+      <c r="B210" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C210" s="21" t="s">
+      <c r="C210" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D210" s="22" t="s">
+      <c r="D210" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E210" s="22" t="s">
+      <c r="E210" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F210" s="3" t="s">
@@ -16309,79 +16876,79 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="19"/>
-      <c r="B211" s="20"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="22"/>
-      <c r="E211" s="22"/>
+      <c r="A211" s="40"/>
+      <c r="B211" s="39"/>
+      <c r="C211" s="44"/>
+      <c r="D211" s="42"/>
+      <c r="E211" s="42"/>
       <c r="F211" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="19"/>
-      <c r="B212" s="20"/>
-      <c r="C212" s="21"/>
-      <c r="D212" s="22"/>
-      <c r="E212" s="22"/>
+      <c r="A212" s="40"/>
+      <c r="B212" s="39"/>
+      <c r="C212" s="44"/>
+      <c r="D212" s="42"/>
+      <c r="E212" s="42"/>
       <c r="F212" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="19"/>
-      <c r="B213" s="20"/>
-      <c r="C213" s="21"/>
-      <c r="D213" s="22"/>
-      <c r="E213" s="22"/>
+      <c r="A213" s="40"/>
+      <c r="B213" s="39"/>
+      <c r="C213" s="44"/>
+      <c r="D213" s="42"/>
+      <c r="E213" s="42"/>
       <c r="F213" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="19"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="21"/>
-      <c r="D214" s="22"/>
-      <c r="E214" s="22"/>
+      <c r="A214" s="40"/>
+      <c r="B214" s="39"/>
+      <c r="C214" s="44"/>
+      <c r="D214" s="42"/>
+      <c r="E214" s="42"/>
       <c r="F214" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="19"/>
-      <c r="B215" s="20"/>
-      <c r="C215" s="21"/>
-      <c r="D215" s="22"/>
-      <c r="E215" s="22"/>
+      <c r="A215" s="40"/>
+      <c r="B215" s="39"/>
+      <c r="C215" s="44"/>
+      <c r="D215" s="42"/>
+      <c r="E215" s="42"/>
       <c r="F215" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="19"/>
-      <c r="B216" s="20"/>
-      <c r="C216" s="21"/>
-      <c r="D216" s="22"/>
-      <c r="E216" s="22"/>
+      <c r="A216" s="40"/>
+      <c r="B216" s="39"/>
+      <c r="C216" s="44"/>
+      <c r="D216" s="42"/>
+      <c r="E216" s="42"/>
       <c r="F216" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="19">
+      <c r="A217" s="40">
         <v>36</v>
       </c>
-      <c r="B217" s="20" t="s">
+      <c r="B217" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C217" s="21" t="s">
+      <c r="C217" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D217" s="22" t="s">
+      <c r="D217" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E217" s="22" t="s">
+      <c r="E217" s="42" t="s">
         <v>21</v>
       </c>
       <c r="F217" s="3" t="s">
@@ -16389,61 +16956,61 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="19"/>
-      <c r="B218" s="20"/>
-      <c r="C218" s="21"/>
-      <c r="D218" s="22"/>
-      <c r="E218" s="22"/>
+      <c r="A218" s="40"/>
+      <c r="B218" s="39"/>
+      <c r="C218" s="44"/>
+      <c r="D218" s="42"/>
+      <c r="E218" s="42"/>
       <c r="F218" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="19"/>
-      <c r="B219" s="20"/>
-      <c r="C219" s="21"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22"/>
+      <c r="A219" s="40"/>
+      <c r="B219" s="39"/>
+      <c r="C219" s="44"/>
+      <c r="D219" s="42"/>
+      <c r="E219" s="42"/>
       <c r="F219" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="19"/>
-      <c r="B220" s="20"/>
-      <c r="C220" s="21"/>
-      <c r="D220" s="22"/>
-      <c r="E220" s="22"/>
+      <c r="A220" s="40"/>
+      <c r="B220" s="39"/>
+      <c r="C220" s="44"/>
+      <c r="D220" s="42"/>
+      <c r="E220" s="42"/>
       <c r="F220" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="19"/>
-      <c r="B221" s="20"/>
-      <c r="C221" s="21"/>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
+      <c r="A221" s="40"/>
+      <c r="B221" s="39"/>
+      <c r="C221" s="44"/>
+      <c r="D221" s="42"/>
+      <c r="E221" s="42"/>
       <c r="F221" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="19"/>
-      <c r="B222" s="20"/>
-      <c r="C222" s="21"/>
-      <c r="D222" s="22"/>
-      <c r="E222" s="22"/>
+      <c r="A222" s="40"/>
+      <c r="B222" s="39"/>
+      <c r="C222" s="44"/>
+      <c r="D222" s="42"/>
+      <c r="E222" s="42"/>
       <c r="F222" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="19"/>
-      <c r="B223" s="20"/>
-      <c r="C223" s="21"/>
-      <c r="D223" s="22"/>
-      <c r="E223" s="22"/>
+      <c r="A223" s="40"/>
+      <c r="B223" s="39"/>
+      <c r="C223" s="44"/>
+      <c r="D223" s="42"/>
+      <c r="E223" s="42"/>
       <c r="F223" s="3" t="s">
         <v>40</v>
       </c>
@@ -16465,123 +17032,26 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="157">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="D49:D55"/>
-    <mergeCell ref="E49:E55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="D56:D62"/>
-    <mergeCell ref="E56:E62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="D63:D69"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="D70:D76"/>
-    <mergeCell ref="E70:E76"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="D77:D83"/>
-    <mergeCell ref="E77:E83"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="D84:D90"/>
-    <mergeCell ref="E84:E90"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="A98:A104"/>
-    <mergeCell ref="B98:B104"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="D98:D104"/>
-    <mergeCell ref="E98:E104"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="B112:B118"/>
-    <mergeCell ref="C112:C118"/>
-    <mergeCell ref="D112:D118"/>
-    <mergeCell ref="E112:E118"/>
-    <mergeCell ref="A119:A125"/>
-    <mergeCell ref="B119:B125"/>
-    <mergeCell ref="C119:C125"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="E119:E125"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="B126:B132"/>
-    <mergeCell ref="C126:C132"/>
-    <mergeCell ref="D126:D132"/>
-    <mergeCell ref="E126:E132"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="E133:E139"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="D140:D146"/>
-    <mergeCell ref="E140:E146"/>
-    <mergeCell ref="A147:A153"/>
-    <mergeCell ref="B147:B153"/>
-    <mergeCell ref="C147:C153"/>
-    <mergeCell ref="D147:D153"/>
-    <mergeCell ref="E147:E153"/>
-    <mergeCell ref="A161:A167"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="C161:C167"/>
-    <mergeCell ref="D161:D167"/>
-    <mergeCell ref="E161:E167"/>
-    <mergeCell ref="A154:A160"/>
-    <mergeCell ref="B154:B160"/>
-    <mergeCell ref="C154:C160"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="E154:E160"/>
+    <mergeCell ref="A217:A223"/>
+    <mergeCell ref="B217:B223"/>
+    <mergeCell ref="C217:C223"/>
+    <mergeCell ref="D217:D223"/>
+    <mergeCell ref="E217:E223"/>
+    <mergeCell ref="A210:A216"/>
+    <mergeCell ref="B210:B216"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="D210:D216"/>
+    <mergeCell ref="E210:E216"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="D168:D174"/>
+    <mergeCell ref="E168:E174"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="E175:E181"/>
     <mergeCell ref="A203:A209"/>
     <mergeCell ref="B203:B209"/>
     <mergeCell ref="C203:C209"/>
@@ -16602,26 +17072,123 @@
     <mergeCell ref="C196:C202"/>
     <mergeCell ref="D196:D202"/>
     <mergeCell ref="E196:E202"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="D168:D174"/>
-    <mergeCell ref="E168:E174"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="D175:D181"/>
-    <mergeCell ref="E175:E181"/>
-    <mergeCell ref="A217:A223"/>
-    <mergeCell ref="B217:B223"/>
-    <mergeCell ref="C217:C223"/>
-    <mergeCell ref="D217:D223"/>
-    <mergeCell ref="E217:E223"/>
-    <mergeCell ref="A210:A216"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="D210:D216"/>
-    <mergeCell ref="E210:E216"/>
+    <mergeCell ref="A147:A153"/>
+    <mergeCell ref="B147:B153"/>
+    <mergeCell ref="C147:C153"/>
+    <mergeCell ref="D147:D153"/>
+    <mergeCell ref="E147:E153"/>
+    <mergeCell ref="A161:A167"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="C161:C167"/>
+    <mergeCell ref="D161:D167"/>
+    <mergeCell ref="E161:E167"/>
+    <mergeCell ref="A154:A160"/>
+    <mergeCell ref="B154:B160"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="E154:E160"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="E133:E139"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="D140:D146"/>
+    <mergeCell ref="E140:E146"/>
+    <mergeCell ref="A119:A125"/>
+    <mergeCell ref="B119:B125"/>
+    <mergeCell ref="C119:C125"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="E119:E125"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="B126:B132"/>
+    <mergeCell ref="C126:C132"/>
+    <mergeCell ref="D126:D132"/>
+    <mergeCell ref="E126:E132"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="D112:D118"/>
+    <mergeCell ref="E112:E118"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="A98:A104"/>
+    <mergeCell ref="B98:B104"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="D98:D104"/>
+    <mergeCell ref="E98:E104"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="D77:D83"/>
+    <mergeCell ref="E77:E83"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="D84:D90"/>
+    <mergeCell ref="E84:E90"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="D70:D76"/>
+    <mergeCell ref="E70:E76"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="D49:D55"/>
+    <mergeCell ref="E49:E55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="E56:E62"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -16660,9 +17227,29 @@
     <hyperlink ref="M78" r:id="rId34"/>
     <hyperlink ref="M83" r:id="rId35"/>
     <hyperlink ref="M82" r:id="rId36"/>
+    <hyperlink ref="M84" r:id="rId37"/>
+    <hyperlink ref="M85" r:id="rId38"/>
+    <hyperlink ref="M89" r:id="rId39"/>
+    <hyperlink ref="M90" r:id="rId40"/>
+    <hyperlink ref="M91" r:id="rId41"/>
+    <hyperlink ref="M92" r:id="rId42"/>
+    <hyperlink ref="M96" r:id="rId43" display="https://pabmi.atlassian.net/browse/PABMI-556"/>
+    <hyperlink ref="M97" r:id="rId44"/>
+    <hyperlink ref="M98" r:id="rId45"/>
+    <hyperlink ref="M99" r:id="rId46"/>
+    <hyperlink ref="M103" r:id="rId47"/>
+    <hyperlink ref="M104" r:id="rId48"/>
+    <hyperlink ref="M105" r:id="rId49"/>
+    <hyperlink ref="M106" r:id="rId50"/>
+    <hyperlink ref="M110" r:id="rId51"/>
+    <hyperlink ref="M111" r:id="rId52"/>
+    <hyperlink ref="M112" r:id="rId53"/>
+    <hyperlink ref="M113" r:id="rId54"/>
+    <hyperlink ref="M117" r:id="rId55"/>
+    <hyperlink ref="M118" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -16682,19 +17269,19 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K111:K141</xm:sqref>
+          <xm:sqref>K114:K115 K119:K141</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L141</xm:sqref>
+          <xm:sqref>L8:L115 L117:L141</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K110</xm:sqref>
+          <xm:sqref>K7:K113 K117:K118</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
